--- a/SensorDataFilVers2.xlsx
+++ b/SensorDataFilVers2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bruger\Documents\Bachelorprojekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{0AD5D92A-DC3E-406E-A0CC-58CDB3816FBD}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{9AA727EE-5493-4D89-856F-777D9C90451F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9070" xr2:uid="{67E6E48D-6249-4DA5-9873-57FE481732B7}"/>
   </bookViews>
@@ -558,8 +558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{758D3C2A-ED3E-4A0E-BC8A-DBBB57E283BF}">
   <dimension ref="A1:R52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -636,7 +636,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="1">
-        <v>43117.496817129628</v>
+        <v>43482.496817129628</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -689,7 +689,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="1">
-        <v>43116.313101851854</v>
+        <v>43481.313101851854</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -901,7 +901,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="1">
-        <v>43114.920162037037</v>
+        <v>43479.920162037037</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -954,7 +954,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="1">
-        <v>43114.646249999998</v>
+        <v>43479.646249999998</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1007,7 +1007,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="1">
-        <v>43114.496817129628</v>
+        <v>43479.496817129628</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1060,7 +1060,7 @@
         <v>3</v>
       </c>
       <c r="C10" s="1">
-        <v>43114.313101851854</v>
+        <v>43479.313101851854</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1325,7 +1325,7 @@
         <v>2</v>
       </c>
       <c r="C15" s="1">
-        <v>43112.496817129628</v>
+        <v>43477.496817129628</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -1378,7 +1378,7 @@
         <v>3</v>
       </c>
       <c r="C16" s="1">
-        <v>43112.313101851854</v>
+        <v>43477.313101851854</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -1484,7 +1484,7 @@
         <v>3</v>
       </c>
       <c r="C18" s="1">
-        <v>43110.920162037037</v>
+        <v>43475.920162037037</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -1537,7 +1537,7 @@
         <v>2</v>
       </c>
       <c r="C19" s="1">
-        <v>43110.646249999998</v>
+        <v>43475.646249999998</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -1590,7 +1590,7 @@
         <v>2</v>
       </c>
       <c r="C20" s="1">
-        <v>43110.496817129628</v>
+        <v>43475.496817129628</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -1643,7 +1643,7 @@
         <v>3</v>
       </c>
       <c r="C21" s="1">
-        <v>43110.313101851854</v>
+        <v>43475.313101851854</v>
       </c>
       <c r="D21">
         <v>0</v>

--- a/SensorDataFilVers2.xlsx
+++ b/SensorDataFilVers2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bruger\Documents\Bachelorprojekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{9AA727EE-5493-4D89-856F-777D9C90451F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{CE795A38-D907-4E87-8F9C-6CC3188F87A5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9070" xr2:uid="{67E6E48D-6249-4DA5-9873-57FE481732B7}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="59">
   <si>
     <t>ID</t>
   </si>
@@ -556,10 +556,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{758D3C2A-ED3E-4A0E-BC8A-DBBB57E283BF}">
-  <dimension ref="A1:R52"/>
+  <dimension ref="A1:R93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A79" sqref="A79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1908,7 +1908,7 @@
         <v>3</v>
       </c>
       <c r="C26" s="1">
-        <v>43394.313101851854</v>
+        <v>43473.313101851854</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -1961,7 +1961,7 @@
         <v>2</v>
       </c>
       <c r="C27" s="1">
-        <v>43394.322974537034</v>
+        <v>43473.322974537034</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -2014,7 +2014,7 @@
         <v>3</v>
       </c>
       <c r="C28" s="1">
-        <v>43393.823182870372</v>
+        <v>43472.823182870372</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -2067,7 +2067,7 @@
         <v>2</v>
       </c>
       <c r="C29" s="1">
-        <v>43393.354421296295</v>
+        <v>43472.354421296295</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -2120,7 +2120,7 @@
         <v>2</v>
       </c>
       <c r="C30" s="1">
-        <v>43393.620393518519</v>
+        <v>43472.620393518519</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -2173,25 +2173,25 @@
         <v>2</v>
       </c>
       <c r="C31" s="1">
-        <v>43383.370150462964</v>
+        <v>43472.862523148149</v>
       </c>
       <c r="D31">
         <v>1</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G31">
         <v>0</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="J31" s="3" t="s">
         <v>44</v>
@@ -2200,13 +2200,13 @@
         <v>44</v>
       </c>
       <c r="L31" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="M31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N31" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="O31">
         <v>0</v>
@@ -2215,7 +2215,7 @@
         <v>1</v>
       </c>
       <c r="Q31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.35">
@@ -2225,8 +2225,8 @@
       <c r="B32" t="s">
         <v>2</v>
       </c>
-      <c r="C32" s="2">
-        <v>43383.455150462964</v>
+      <c r="C32" s="1">
+        <v>43471.496817129628</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -2273,13 +2273,13 @@
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A33">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B33" t="s">
         <v>3</v>
       </c>
       <c r="C33" s="1">
-        <v>43382.920162037037</v>
+        <v>43470.313101851854</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -2291,16 +2291,16 @@
         <v>0</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>44</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>44</v>
@@ -2311,14 +2311,14 @@
       <c r="M33">
         <v>1</v>
       </c>
-      <c r="N33" t="s">
-        <v>15</v>
+      <c r="N33" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="O33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q33">
         <v>0</v>
@@ -2326,13 +2326,13 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B34" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C34" s="1">
-        <v>43383.646249999998</v>
+        <v>43469.609722222223</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -2341,37 +2341,37 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="J34" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
+      </c>
+      <c r="J34" t="s">
+        <v>41</v>
       </c>
       <c r="K34" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="L34" t="s">
-        <v>10</v>
+      <c r="L34" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="M34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N34" s="3" t="s">
         <v>17</v>
       </c>
       <c r="O34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q34">
         <v>0</v>
@@ -2379,13 +2379,13 @@
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A35">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B35" t="s">
         <v>3</v>
       </c>
       <c r="C35" s="1">
-        <v>43381.313101851854</v>
+        <v>43469.484722222223</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -2397,13 +2397,13 @@
         <v>0</v>
       </c>
       <c r="G35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>44</v>
@@ -2411,14 +2411,14 @@
       <c r="K35" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="L35" t="s">
+      <c r="L35" s="3" t="s">
         <v>11</v>
       </c>
       <c r="M35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N35" s="3" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="O35">
         <v>0</v>
@@ -2427,18 +2427,18 @@
         <v>1</v>
       </c>
       <c r="Q35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A36">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B36" t="s">
         <v>2</v>
       </c>
       <c r="C36" s="1">
-        <v>43381.322974537034</v>
+        <v>43469.443055555559</v>
       </c>
       <c r="D36">
         <v>1</v>
@@ -2450,28 +2450,28 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="I36" s="3" t="s">
         <v>44</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="K36" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="L36" t="s">
+      <c r="L36" s="3" t="s">
         <v>9</v>
       </c>
       <c r="M36">
         <v>1</v>
       </c>
-      <c r="N36" t="s">
-        <v>19</v>
+      <c r="N36" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="O36">
         <v>1</v>
@@ -2480,7 +2480,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.35">
@@ -2491,7 +2491,7 @@
         <v>3</v>
       </c>
       <c r="C37" s="1">
-        <v>43380.823182870372</v>
+        <v>43468.920162037037</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -2506,13 +2506,13 @@
         <v>0</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="K37" s="3" t="s">
         <v>44</v>
@@ -2521,19 +2521,19 @@
         <v>11</v>
       </c>
       <c r="M37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N37" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="O37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.35">
@@ -2544,13 +2544,13 @@
         <v>2</v>
       </c>
       <c r="C38" s="1">
-        <v>43380.354421296295</v>
+        <v>43468.646249999998</v>
       </c>
       <c r="D38">
         <v>0</v>
       </c>
       <c r="E38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F38">
         <v>1</v>
@@ -2559,13 +2559,13 @@
         <v>0</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K38" s="3" t="s">
         <v>44</v>
@@ -2574,16 +2574,16 @@
         <v>10</v>
       </c>
       <c r="M38">
-        <v>1</v>
-      </c>
-      <c r="N38" t="s">
+        <v>2</v>
+      </c>
+      <c r="N38" s="3" t="s">
         <v>17</v>
       </c>
       <c r="O38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q38">
         <v>0</v>
@@ -2591,13 +2591,13 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B39" t="s">
         <v>2</v>
       </c>
       <c r="C39" s="1">
-        <v>43380.620393518519</v>
+        <v>43467.496817129628</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -2609,7 +2609,7 @@
         <v>1</v>
       </c>
       <c r="G39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39" s="3" t="s">
         <v>34</v>
@@ -2627,10 +2627,10 @@
         <v>10</v>
       </c>
       <c r="M39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N39" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="O39">
         <v>0</v>
@@ -2639,36 +2639,36 @@
         <v>1</v>
       </c>
       <c r="Q39">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A40">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B40" t="s">
         <v>2</v>
       </c>
       <c r="C40" s="1">
-        <v>43380.862523148149</v>
+        <v>43466.496817129628</v>
       </c>
       <c r="D40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="J40" s="3" t="s">
         <v>44</v>
@@ -2677,13 +2677,13 @@
         <v>44</v>
       </c>
       <c r="L40" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="M40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N40" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="O40">
         <v>0</v>
@@ -2692,57 +2692,57 @@
         <v>1</v>
       </c>
       <c r="Q40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A41">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B41" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C41" s="1">
-        <v>43350.411365740743</v>
+        <v>43465.313101851854</v>
       </c>
       <c r="D41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>44</v>
       </c>
       <c r="L41" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="M41">
         <v>1</v>
       </c>
-      <c r="N41" t="s">
-        <v>23</v>
+      <c r="N41" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="O41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q41">
         <v>0</v>
@@ -2750,46 +2750,46 @@
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B42" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C42" s="1">
-        <v>43350.411111111112</v>
+        <v>43464.609722222223</v>
       </c>
       <c r="D42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>50</v>
+        <v>44</v>
+      </c>
+      <c r="J42" t="s">
+        <v>41</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="L42" t="s">
-        <v>9</v>
+      <c r="L42" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="M42">
         <v>1</v>
       </c>
-      <c r="N42" t="s">
-        <v>23</v>
+      <c r="N42" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="O42">
         <v>1</v>
@@ -2809,63 +2809,2236 @@
         <v>3</v>
       </c>
       <c r="C43" s="1">
+        <v>43464.484722222223</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L43" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M43">
+        <v>2</v>
+      </c>
+      <c r="N43" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43">
+        <v>1</v>
+      </c>
+      <c r="Q43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>1</v>
+      </c>
+      <c r="B44" t="s">
+        <v>2</v>
+      </c>
+      <c r="C44" s="1">
+        <v>43464.443055555559</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L44" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M44">
+        <v>1</v>
+      </c>
+      <c r="N44" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="O44">
+        <v>1</v>
+      </c>
+      <c r="P44">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>5</v>
+      </c>
+      <c r="B45" t="s">
+        <v>3</v>
+      </c>
+      <c r="C45" s="1">
+        <v>43463.920162037037</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L45" t="s">
+        <v>11</v>
+      </c>
+      <c r="M45">
+        <v>1</v>
+      </c>
+      <c r="N45" t="s">
+        <v>15</v>
+      </c>
+      <c r="O45">
+        <v>1</v>
+      </c>
+      <c r="P45">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>1</v>
+      </c>
+      <c r="B46" t="s">
+        <v>2</v>
+      </c>
+      <c r="C46" s="1">
+        <v>43463.646249999998</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K46" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L46" t="s">
+        <v>10</v>
+      </c>
+      <c r="M46">
+        <v>2</v>
+      </c>
+      <c r="N46" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46">
+        <v>1</v>
+      </c>
+      <c r="Q46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>3</v>
+      </c>
+      <c r="B47" t="s">
+        <v>2</v>
+      </c>
+      <c r="C47" s="1">
+        <v>43462.496817129628</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L47" t="s">
+        <v>10</v>
+      </c>
+      <c r="M47">
+        <v>2</v>
+      </c>
+      <c r="N47" t="s">
+        <v>24</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47">
+        <v>1</v>
+      </c>
+      <c r="Q47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>2</v>
+      </c>
+      <c r="B48" t="s">
+        <v>3</v>
+      </c>
+      <c r="C48" s="1">
+        <v>43461.313101851854</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>1</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K48" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L48" t="s">
+        <v>11</v>
+      </c>
+      <c r="M48">
+        <v>1</v>
+      </c>
+      <c r="N48" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48">
+        <v>1</v>
+      </c>
+      <c r="Q48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>2</v>
+      </c>
+      <c r="B49" t="s">
+        <v>3</v>
+      </c>
+      <c r="C49" s="1">
+        <v>43461.609722222223</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>1</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J49" t="s">
+        <v>41</v>
+      </c>
+      <c r="K49" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L49" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M49">
+        <v>1</v>
+      </c>
+      <c r="N49" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O49">
+        <v>1</v>
+      </c>
+      <c r="P49">
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>5</v>
+      </c>
+      <c r="B50" t="s">
+        <v>3</v>
+      </c>
+      <c r="C50" s="1">
+        <v>43461.443055555559</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I50" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J50" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K50" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L50" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M50">
+        <v>2</v>
+      </c>
+      <c r="N50" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+      <c r="P50">
+        <v>1</v>
+      </c>
+      <c r="Q50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <v>3</v>
+      </c>
+      <c r="B51" t="s">
+        <v>2</v>
+      </c>
+      <c r="C51" s="1">
+        <v>43460.496817129628</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51">
+        <v>1</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I51" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J51" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K51" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L51" t="s">
+        <v>10</v>
+      </c>
+      <c r="M51">
+        <v>2</v>
+      </c>
+      <c r="N51" t="s">
+        <v>24</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+      <c r="P51">
+        <v>1</v>
+      </c>
+      <c r="Q51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A52">
+        <v>2</v>
+      </c>
+      <c r="B52" t="s">
+        <v>3</v>
+      </c>
+      <c r="C52" s="1">
+        <v>43460.313101851854</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L52" t="s">
+        <v>11</v>
+      </c>
+      <c r="M52">
+        <v>1</v>
+      </c>
+      <c r="N52" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="O52">
+        <v>0</v>
+      </c>
+      <c r="P52">
+        <v>1</v>
+      </c>
+      <c r="Q52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A53">
+        <v>2</v>
+      </c>
+      <c r="B53" t="s">
+        <v>3</v>
+      </c>
+      <c r="C53" s="1">
+        <v>43459.609722222223</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>1</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I53" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J53" t="s">
+        <v>41</v>
+      </c>
+      <c r="K53" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L53" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M53">
+        <v>1</v>
+      </c>
+      <c r="N53" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O53">
+        <v>1</v>
+      </c>
+      <c r="P53">
+        <v>0</v>
+      </c>
+      <c r="Q53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A54">
+        <v>5</v>
+      </c>
+      <c r="B54" t="s">
+        <v>3</v>
+      </c>
+      <c r="C54" s="1">
+        <v>43458.920162037037</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K54" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L54" t="s">
+        <v>11</v>
+      </c>
+      <c r="M54">
+        <v>1</v>
+      </c>
+      <c r="N54" t="s">
+        <v>15</v>
+      </c>
+      <c r="O54">
+        <v>1</v>
+      </c>
+      <c r="P54">
+        <v>0</v>
+      </c>
+      <c r="Q54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A55">
+        <v>1</v>
+      </c>
+      <c r="B55" t="s">
+        <v>2</v>
+      </c>
+      <c r="C55" s="1">
+        <v>43458.646249999998</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I55" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J55" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K55" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L55" t="s">
+        <v>10</v>
+      </c>
+      <c r="M55">
+        <v>2</v>
+      </c>
+      <c r="N55" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O55">
+        <v>0</v>
+      </c>
+      <c r="P55">
+        <v>1</v>
+      </c>
+      <c r="Q55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A56">
+        <v>3</v>
+      </c>
+      <c r="B56" t="s">
+        <v>2</v>
+      </c>
+      <c r="C56" s="1">
+        <v>43458.496817129628</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="G56">
+        <v>1</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I56" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J56" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K56" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L56" t="s">
+        <v>10</v>
+      </c>
+      <c r="M56">
+        <v>2</v>
+      </c>
+      <c r="N56" t="s">
+        <v>24</v>
+      </c>
+      <c r="O56">
+        <v>0</v>
+      </c>
+      <c r="P56">
+        <v>1</v>
+      </c>
+      <c r="Q56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A57">
+        <v>2</v>
+      </c>
+      <c r="B57" t="s">
+        <v>3</v>
+      </c>
+      <c r="C57" s="1">
+        <v>43457.313101851854</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>1</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K57" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L57" t="s">
+        <v>11</v>
+      </c>
+      <c r="M57">
+        <v>1</v>
+      </c>
+      <c r="N57" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="O57">
+        <v>0</v>
+      </c>
+      <c r="P57">
+        <v>1</v>
+      </c>
+      <c r="Q57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A58">
+        <v>2</v>
+      </c>
+      <c r="B58" t="s">
+        <v>3</v>
+      </c>
+      <c r="C58" s="1">
+        <v>43457.609722222223</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>1</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J58" t="s">
+        <v>41</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M58">
+        <v>1</v>
+      </c>
+      <c r="N58" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O58">
+        <v>1</v>
+      </c>
+      <c r="P58">
+        <v>0</v>
+      </c>
+      <c r="Q58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A59">
+        <v>5</v>
+      </c>
+      <c r="B59" t="s">
+        <v>3</v>
+      </c>
+      <c r="C59" s="1">
+        <v>43457.443055555559</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L59" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M59">
+        <v>2</v>
+      </c>
+      <c r="N59" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="O59">
+        <v>0</v>
+      </c>
+      <c r="P59">
+        <v>1</v>
+      </c>
+      <c r="Q59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A60">
+        <v>1</v>
+      </c>
+      <c r="B60" t="s">
+        <v>2</v>
+      </c>
+      <c r="C60" s="1">
+        <v>43457.484722222223</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K60" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L60" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M60">
+        <v>1</v>
+      </c>
+      <c r="N60" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="O60">
+        <v>1</v>
+      </c>
+      <c r="P60">
+        <v>0</v>
+      </c>
+      <c r="Q60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A61">
+        <v>3</v>
+      </c>
+      <c r="B61" t="s">
+        <v>2</v>
+      </c>
+      <c r="C61" s="1">
+        <v>43456.357638888891</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I61" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J61" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K61" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L61" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M61">
+        <v>2</v>
+      </c>
+      <c r="N61" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="O61">
+        <v>0</v>
+      </c>
+      <c r="P61">
+        <v>1</v>
+      </c>
+      <c r="Q61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A62">
+        <v>2</v>
+      </c>
+      <c r="B62" t="s">
+        <v>3</v>
+      </c>
+      <c r="C62" s="1">
+        <v>43455.313101851854</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>1</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K62" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L62" t="s">
+        <v>11</v>
+      </c>
+      <c r="M62">
+        <v>1</v>
+      </c>
+      <c r="N62" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="O62">
+        <v>0</v>
+      </c>
+      <c r="P62">
+        <v>1</v>
+      </c>
+      <c r="Q62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A63">
+        <v>3</v>
+      </c>
+      <c r="B63" t="s">
+        <v>2</v>
+      </c>
+      <c r="C63" s="1">
+        <v>43455.322974537034</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+      <c r="F63">
+        <v>1</v>
+      </c>
+      <c r="G63">
+        <v>1</v>
+      </c>
+      <c r="H63" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I63" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J63" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K63" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L63" t="s">
+        <v>9</v>
+      </c>
+      <c r="M63">
+        <v>1</v>
+      </c>
+      <c r="N63" t="s">
+        <v>19</v>
+      </c>
+      <c r="O63">
+        <v>1</v>
+      </c>
+      <c r="P63">
+        <v>0</v>
+      </c>
+      <c r="Q63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A64">
+        <v>5</v>
+      </c>
+      <c r="B64" t="s">
+        <v>3</v>
+      </c>
+      <c r="C64" s="1">
+        <v>43454.823182870372</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I64" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J64" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K64" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L64" t="s">
+        <v>11</v>
+      </c>
+      <c r="M64">
+        <v>2</v>
+      </c>
+      <c r="N64" t="s">
+        <v>20</v>
+      </c>
+      <c r="O64">
+        <v>0</v>
+      </c>
+      <c r="P64">
+        <v>1</v>
+      </c>
+      <c r="Q64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A65">
+        <v>1</v>
+      </c>
+      <c r="B65" t="s">
+        <v>2</v>
+      </c>
+      <c r="C65" s="1">
+        <v>43454.354421296295</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="F65">
+        <v>1</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I65" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J65" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K65" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L65" t="s">
+        <v>10</v>
+      </c>
+      <c r="M65">
+        <v>1</v>
+      </c>
+      <c r="N65" t="s">
+        <v>17</v>
+      </c>
+      <c r="O65">
+        <v>1</v>
+      </c>
+      <c r="P65">
+        <v>0</v>
+      </c>
+      <c r="Q65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A66">
+        <v>1</v>
+      </c>
+      <c r="B66" t="s">
+        <v>2</v>
+      </c>
+      <c r="C66" s="1">
+        <v>43454.620393518519</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+      <c r="F66">
+        <v>1</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J66" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K66" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L66" t="s">
+        <v>10</v>
+      </c>
+      <c r="M66">
+        <v>1</v>
+      </c>
+      <c r="N66" t="s">
+        <v>21</v>
+      </c>
+      <c r="O66">
+        <v>0</v>
+      </c>
+      <c r="P66">
+        <v>1</v>
+      </c>
+      <c r="Q66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A67">
+        <v>3</v>
+      </c>
+      <c r="B67" t="s">
+        <v>2</v>
+      </c>
+      <c r="C67" s="1">
+        <v>43453.496817129628</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+      <c r="F67">
+        <v>1</v>
+      </c>
+      <c r="G67">
+        <v>1</v>
+      </c>
+      <c r="H67" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I67" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J67" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K67" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L67" t="s">
+        <v>10</v>
+      </c>
+      <c r="M67">
+        <v>2</v>
+      </c>
+      <c r="N67" t="s">
+        <v>24</v>
+      </c>
+      <c r="O67">
+        <v>0</v>
+      </c>
+      <c r="P67">
+        <v>1</v>
+      </c>
+      <c r="Q67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A68">
+        <v>2</v>
+      </c>
+      <c r="B68" t="s">
+        <v>3</v>
+      </c>
+      <c r="C68" s="1">
+        <v>43453.313101851854</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>1</v>
+      </c>
+      <c r="H68" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I68" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J68" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K68" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L68" t="s">
+        <v>11</v>
+      </c>
+      <c r="M68">
+        <v>1</v>
+      </c>
+      <c r="N68" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="O68">
+        <v>0</v>
+      </c>
+      <c r="P68">
+        <v>1</v>
+      </c>
+      <c r="Q68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A69">
+        <v>2</v>
+      </c>
+      <c r="B69" t="s">
+        <v>3</v>
+      </c>
+      <c r="C69" s="1">
+        <v>43452.609722222223</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <v>1</v>
+      </c>
+      <c r="H69" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I69" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J69" t="s">
+        <v>41</v>
+      </c>
+      <c r="K69" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L69" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M69">
+        <v>1</v>
+      </c>
+      <c r="N69" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O69">
+        <v>1</v>
+      </c>
+      <c r="P69">
+        <v>0</v>
+      </c>
+      <c r="Q69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A70">
+        <v>5</v>
+      </c>
+      <c r="B70" t="s">
+        <v>3</v>
+      </c>
+      <c r="C70" s="1">
+        <v>43451.920162037037</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I70" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J70" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K70" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L70" t="s">
+        <v>11</v>
+      </c>
+      <c r="M70">
+        <v>1</v>
+      </c>
+      <c r="N70" t="s">
+        <v>15</v>
+      </c>
+      <c r="O70">
+        <v>1</v>
+      </c>
+      <c r="P70">
+        <v>0</v>
+      </c>
+      <c r="Q70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A71">
+        <v>1</v>
+      </c>
+      <c r="B71" t="s">
+        <v>2</v>
+      </c>
+      <c r="C71" s="1">
+        <v>43451.646249999998</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>1</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I71" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J71" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K71" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L71" t="s">
+        <v>10</v>
+      </c>
+      <c r="M71">
+        <v>2</v>
+      </c>
+      <c r="N71" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O71">
+        <v>0</v>
+      </c>
+      <c r="P71">
+        <v>1</v>
+      </c>
+      <c r="Q71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A72">
+        <v>1</v>
+      </c>
+      <c r="B72" t="s">
+        <v>2</v>
+      </c>
+      <c r="C72" s="1">
+        <v>43383.370150462964</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+      <c r="E72">
+        <v>1</v>
+      </c>
+      <c r="F72">
+        <v>1</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K72" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L72" t="s">
+        <v>9</v>
+      </c>
+      <c r="M72">
+        <v>2</v>
+      </c>
+      <c r="N72" t="s">
+        <v>14</v>
+      </c>
+      <c r="O72">
+        <v>0</v>
+      </c>
+      <c r="P72">
+        <v>1</v>
+      </c>
+      <c r="Q72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A73">
+        <v>3</v>
+      </c>
+      <c r="B73" t="s">
+        <v>2</v>
+      </c>
+      <c r="C73" s="2">
+        <v>43383.455150462964</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>1</v>
+      </c>
+      <c r="F73">
+        <v>1</v>
+      </c>
+      <c r="G73">
+        <v>1</v>
+      </c>
+      <c r="H73" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I73" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J73" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K73" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L73" t="s">
+        <v>10</v>
+      </c>
+      <c r="M73">
+        <v>2</v>
+      </c>
+      <c r="N73" t="s">
+        <v>24</v>
+      </c>
+      <c r="O73">
+        <v>0</v>
+      </c>
+      <c r="P73">
+        <v>1</v>
+      </c>
+      <c r="Q73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A74">
+        <v>5</v>
+      </c>
+      <c r="B74" t="s">
+        <v>3</v>
+      </c>
+      <c r="C74" s="1">
+        <v>43382.920162037037</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I74" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J74" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K74" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L74" t="s">
+        <v>11</v>
+      </c>
+      <c r="M74">
+        <v>1</v>
+      </c>
+      <c r="N74" t="s">
+        <v>15</v>
+      </c>
+      <c r="O74">
+        <v>1</v>
+      </c>
+      <c r="P74">
+        <v>0</v>
+      </c>
+      <c r="Q74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A75">
+        <v>1</v>
+      </c>
+      <c r="B75" t="s">
+        <v>2</v>
+      </c>
+      <c r="C75" s="1">
+        <v>43383.646249999998</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>1</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I75" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J75" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K75" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L75" t="s">
+        <v>10</v>
+      </c>
+      <c r="M75">
+        <v>2</v>
+      </c>
+      <c r="N75" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O75">
+        <v>0</v>
+      </c>
+      <c r="P75">
+        <v>1</v>
+      </c>
+      <c r="Q75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A76">
+        <v>2</v>
+      </c>
+      <c r="B76" t="s">
+        <v>3</v>
+      </c>
+      <c r="C76" s="1">
+        <v>43381.313101851854</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>1</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J76" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K76" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L76" t="s">
+        <v>11</v>
+      </c>
+      <c r="M76">
+        <v>1</v>
+      </c>
+      <c r="N76" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="O76">
+        <v>0</v>
+      </c>
+      <c r="P76">
+        <v>1</v>
+      </c>
+      <c r="Q76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A77">
+        <v>3</v>
+      </c>
+      <c r="B77" t="s">
+        <v>2</v>
+      </c>
+      <c r="C77" s="1">
+        <v>43381.322974537034</v>
+      </c>
+      <c r="D77">
+        <v>1</v>
+      </c>
+      <c r="E77">
+        <v>1</v>
+      </c>
+      <c r="F77">
+        <v>1</v>
+      </c>
+      <c r="G77">
+        <v>1</v>
+      </c>
+      <c r="H77" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I77" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J77" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K77" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L77" t="s">
+        <v>9</v>
+      </c>
+      <c r="M77">
+        <v>1</v>
+      </c>
+      <c r="N77" t="s">
+        <v>19</v>
+      </c>
+      <c r="O77">
+        <v>1</v>
+      </c>
+      <c r="P77">
+        <v>0</v>
+      </c>
+      <c r="Q77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A78">
+        <v>5</v>
+      </c>
+      <c r="B78" t="s">
+        <v>3</v>
+      </c>
+      <c r="C78" s="1">
+        <v>43380.823182870372</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+      <c r="H78" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I78" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J78" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K78" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L78" t="s">
+        <v>11</v>
+      </c>
+      <c r="M78">
+        <v>2</v>
+      </c>
+      <c r="N78" t="s">
+        <v>20</v>
+      </c>
+      <c r="O78">
+        <v>0</v>
+      </c>
+      <c r="P78">
+        <v>1</v>
+      </c>
+      <c r="Q78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A79">
+        <v>1</v>
+      </c>
+      <c r="B79" t="s">
+        <v>2</v>
+      </c>
+      <c r="C79" s="1">
+        <v>43380.354421296295</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <v>1</v>
+      </c>
+      <c r="F79">
+        <v>1</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I79" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J79" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K79" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L79" t="s">
+        <v>10</v>
+      </c>
+      <c r="M79">
+        <v>1</v>
+      </c>
+      <c r="N79" t="s">
+        <v>17</v>
+      </c>
+      <c r="O79">
+        <v>1</v>
+      </c>
+      <c r="P79">
+        <v>0</v>
+      </c>
+      <c r="Q79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A80">
+        <v>1</v>
+      </c>
+      <c r="B80" t="s">
+        <v>2</v>
+      </c>
+      <c r="C80" s="1">
+        <v>43380.620393518519</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <v>1</v>
+      </c>
+      <c r="F80">
+        <v>1</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+      <c r="H80" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I80" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J80" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K80" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L80" t="s">
+        <v>10</v>
+      </c>
+      <c r="M80">
+        <v>1</v>
+      </c>
+      <c r="N80" t="s">
+        <v>21</v>
+      </c>
+      <c r="O80">
+        <v>0</v>
+      </c>
+      <c r="P80">
+        <v>1</v>
+      </c>
+      <c r="Q80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A81">
+        <v>1</v>
+      </c>
+      <c r="B81" t="s">
+        <v>2</v>
+      </c>
+      <c r="C81" s="1">
+        <v>43380.862523148149</v>
+      </c>
+      <c r="D81">
+        <v>1</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="H81" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J81" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K81" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L81" t="s">
+        <v>22</v>
+      </c>
+      <c r="M81">
+        <v>1</v>
+      </c>
+      <c r="N81" t="s">
+        <v>20</v>
+      </c>
+      <c r="O81">
+        <v>0</v>
+      </c>
+      <c r="P81">
+        <v>1</v>
+      </c>
+      <c r="Q81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A82">
+        <v>3</v>
+      </c>
+      <c r="B82" t="s">
+        <v>2</v>
+      </c>
+      <c r="C82" s="1">
+        <v>43350.411365740743</v>
+      </c>
+      <c r="D82">
+        <v>1</v>
+      </c>
+      <c r="E82">
+        <v>1</v>
+      </c>
+      <c r="F82">
+        <v>1</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I82" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J82" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K82" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L82" t="s">
+        <v>9</v>
+      </c>
+      <c r="M82">
+        <v>1</v>
+      </c>
+      <c r="N82" t="s">
+        <v>23</v>
+      </c>
+      <c r="O82">
+        <v>1</v>
+      </c>
+      <c r="P82">
+        <v>0</v>
+      </c>
+      <c r="Q82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A83">
+        <v>1</v>
+      </c>
+      <c r="B83" t="s">
+        <v>2</v>
+      </c>
+      <c r="C83" s="1">
+        <v>43350.411111111112</v>
+      </c>
+      <c r="D83">
+        <v>1</v>
+      </c>
+      <c r="E83">
+        <v>1</v>
+      </c>
+      <c r="F83">
+        <v>1</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K83" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L83" t="s">
+        <v>9</v>
+      </c>
+      <c r="M83">
+        <v>1</v>
+      </c>
+      <c r="N83" t="s">
+        <v>23</v>
+      </c>
+      <c r="O83">
+        <v>1</v>
+      </c>
+      <c r="P83">
+        <v>0</v>
+      </c>
+      <c r="Q83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A84">
+        <v>5</v>
+      </c>
+      <c r="B84" t="s">
+        <v>3</v>
+      </c>
+      <c r="C84" s="1">
         <v>43382.447916666664</v>
       </c>
-      <c r="D43">
-        <v>0</v>
-      </c>
-      <c r="E43">
-        <v>0</v>
-      </c>
-      <c r="F43">
-        <v>0</v>
-      </c>
-      <c r="G43">
-        <v>0</v>
-      </c>
-      <c r="H43" s="3" t="s">
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="I43" s="3" t="s">
+      <c r="I84" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="J43" s="3" t="s">
+      <c r="J84" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="L43" t="s">
+      <c r="K84" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L84" t="s">
         <v>10</v>
       </c>
-      <c r="M43">
-        <v>1</v>
-      </c>
-      <c r="N43" t="s">
+      <c r="M84">
+        <v>1</v>
+      </c>
+      <c r="N84" t="s">
         <v>26</v>
       </c>
-      <c r="O43">
-        <v>0</v>
-      </c>
-      <c r="P43">
-        <v>1</v>
-      </c>
-      <c r="Q43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="Q45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.35">
-      <c r="C52" s="1"/>
-      <c r="H52" s="3"/>
-      <c r="I52" s="3"/>
-      <c r="J52" s="3"/>
-      <c r="K52" s="3"/>
-      <c r="N52" s="3"/>
+      <c r="O84">
+        <v>0</v>
+      </c>
+      <c r="P84">
+        <v>1</v>
+      </c>
+      <c r="Q84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="Q86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="C93" s="1"/>
+      <c r="H93" s="3"/>
+      <c r="I93" s="3"/>
+      <c r="J93" s="3"/>
+      <c r="K93" s="3"/>
+      <c r="N93" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SensorDataFilVers2.xlsx
+++ b/SensorDataFilVers2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bruger\Documents\Bachelorprojekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{CE795A38-D907-4E87-8F9C-6CC3188F87A5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{A6EAA2FF-F17B-4718-A926-6581694230EA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9070" xr2:uid="{67E6E48D-6249-4DA5-9873-57FE481732B7}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="59">
   <si>
     <t>ID</t>
   </si>
@@ -556,10 +556,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{758D3C2A-ED3E-4A0E-BC8A-DBBB57E283BF}">
-  <dimension ref="A1:R93"/>
+  <dimension ref="A1:R119"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A79" sqref="A79"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -683,13 +683,13 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" s="1">
-        <v>43481.313101851854</v>
+        <v>43482.646249999998</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -698,31 +698,31 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>44</v>
       </c>
       <c r="L3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -736,66 +736,66 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" s="1">
-        <v>43480.609722222223</v>
+        <v>43482.496817129628</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="J4" t="s">
-        <v>41</v>
+        <v>34</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="L4" s="3" t="s">
-        <v>11</v>
+      <c r="L4" t="s">
+        <v>10</v>
       </c>
       <c r="M4">
         <v>1</v>
       </c>
-      <c r="N4" s="3" t="s">
-        <v>17</v>
+      <c r="N4" t="s">
+        <v>24</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" s="1">
-        <v>43480.484722222223</v>
+        <v>43482.313101851854</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -807,13 +807,13 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>44</v>
@@ -821,14 +821,14 @@
       <c r="K5" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="L5" s="3" t="s">
-        <v>11</v>
+      <c r="L5" t="s">
+        <v>10</v>
       </c>
       <c r="M5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -837,71 +837,71 @@
         <v>1</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6" s="1">
-        <v>43480.443055555559</v>
+        <v>43481.313101851854</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>44</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="K6" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="L6" s="3" t="s">
-        <v>9</v>
+      <c r="L6" t="s">
+        <v>11</v>
       </c>
       <c r="M6">
         <v>1</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="O6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="1">
-        <v>43479.920162037037</v>
+        <v>43481.313101851854</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -913,16 +913,16 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>44</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>44</v>
@@ -933,14 +933,14 @@
       <c r="M7">
         <v>1</v>
       </c>
-      <c r="N7" t="s">
-        <v>15</v>
+      <c r="N7" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="O7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7">
         <v>0</v>
@@ -948,13 +948,13 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C8" s="1">
-        <v>43479.646249999998</v>
+        <v>43481.609722222223</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -963,37 +963,37 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
+      </c>
+      <c r="J8" t="s">
+        <v>41</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="L8" t="s">
-        <v>10</v>
+      <c r="L8" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="M8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N8" s="3" t="s">
         <v>17</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8">
         <v>0</v>
@@ -1001,31 +1001,31 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C9" s="1">
-        <v>43479.496817129628</v>
+        <v>43481.443055555559</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>44</v>
@@ -1033,14 +1033,14 @@
       <c r="K9" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="L9" t="s">
-        <v>10</v>
+      <c r="L9" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="M9">
         <v>2</v>
       </c>
-      <c r="N9" t="s">
-        <v>24</v>
+      <c r="N9" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -1054,105 +1054,105 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C10" s="1">
-        <v>43479.313101851854</v>
+        <v>43481.484722222223</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>44</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="L10" t="s">
-        <v>11</v>
+      <c r="L10" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="M10">
         <v>1</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C11" s="1">
-        <v>43478.609722222223</v>
+        <v>43481.357638888891</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="J11" t="s">
-        <v>41</v>
+        <v>53</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="K11" s="3" t="s">
         <v>44</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="O11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11">
         <v>0</v>
@@ -1160,31 +1160,31 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C12" s="1">
-        <v>43478.443055555559</v>
+        <v>43481.496817129628</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>44</v>
@@ -1192,14 +1192,14 @@
       <c r="K12" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>11</v>
+      <c r="L12" t="s">
+        <v>10</v>
       </c>
       <c r="M12">
         <v>2</v>
       </c>
-      <c r="N12" s="3" t="s">
-        <v>58</v>
+      <c r="N12" t="s">
+        <v>24</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -1213,46 +1213,46 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C13" s="1">
-        <v>43478.484722222223</v>
+        <v>43480.609722222223</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="I13" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="J13" s="3" t="s">
-        <v>55</v>
+      <c r="J13" t="s">
+        <v>41</v>
       </c>
       <c r="K13" s="3" t="s">
         <v>44</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="M13">
         <v>1</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="O13">
         <v>1</v>
@@ -1261,36 +1261,36 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A14">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C14" s="1">
-        <v>43478.357638888891</v>
+        <v>43480.484722222223</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>44</v>
@@ -1299,13 +1299,13 @@
         <v>44</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="M14">
         <v>2</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1314,21 +1314,21 @@
         <v>1</v>
       </c>
       <c r="Q14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B15" t="s">
         <v>2</v>
       </c>
       <c r="C15" s="1">
-        <v>43477.496817129628</v>
+        <v>43480.443055555559</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -1337,34 +1337,34 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="L15" t="s">
-        <v>10</v>
+      <c r="L15" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="M15">
-        <v>2</v>
-      </c>
-      <c r="N15" t="s">
-        <v>24</v>
+        <v>1</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15">
         <v>1</v>
@@ -1372,31 +1372,31 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C16" s="1">
-        <v>43477.313101851854</v>
+        <v>43480.496817129628</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="J16" s="3" t="s">
         <v>44</v>
@@ -1405,13 +1405,13 @@
         <v>44</v>
       </c>
       <c r="L16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M16">
-        <v>1</v>
-      </c>
-      <c r="N16" s="3" t="s">
-        <v>18</v>
+        <v>2</v>
+      </c>
+      <c r="N16" t="s">
+        <v>24</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1420,51 +1420,51 @@
         <v>1</v>
       </c>
       <c r="Q16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C17" s="1">
-        <v>43476.609722222223</v>
+        <v>43480.484722222223</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="J17" t="s">
-        <v>41</v>
+      <c r="J17" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>44</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M17">
         <v>1</v>
       </c>
       <c r="N17" s="3" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="O17">
         <v>1</v>
@@ -1473,57 +1473,57 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A18">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C18" s="1">
-        <v>43475.920162037037</v>
+        <v>43480.357638888891</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="L18" t="s">
-        <v>11</v>
+      <c r="L18" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="M18">
-        <v>1</v>
-      </c>
-      <c r="N18" t="s">
-        <v>15</v>
+        <v>2</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="O18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q18">
         <v>0</v>
@@ -1531,13 +1531,13 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A19">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C19" s="1">
-        <v>43475.646249999998</v>
+        <v>43479.920162037037</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -1546,37 +1546,37 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="K19" s="3" t="s">
         <v>44</v>
       </c>
       <c r="L19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M19">
-        <v>2</v>
-      </c>
-      <c r="N19" s="3" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+      <c r="N19" t="s">
+        <v>15</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19">
         <v>0</v>
@@ -1584,31 +1584,31 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C20" s="1">
-        <v>43475.496817129628</v>
+        <v>43479.313101851854</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>44</v>
@@ -1617,13 +1617,13 @@
         <v>44</v>
       </c>
       <c r="L20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M20">
-        <v>2</v>
-      </c>
-      <c r="N20" t="s">
-        <v>24</v>
+        <v>1</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1632,7 +1632,7 @@
         <v>1</v>
       </c>
       <c r="Q20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.35">
@@ -1643,7 +1643,7 @@
         <v>3</v>
       </c>
       <c r="C21" s="1">
-        <v>43475.313101851854</v>
+        <v>43479.609722222223</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -1658,31 +1658,31 @@
         <v>1</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>44</v>
+      <c r="J21" t="s">
+        <v>41</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="L21" t="s">
+      <c r="L21" s="3" t="s">
         <v>11</v>
       </c>
       <c r="M21">
         <v>1</v>
       </c>
       <c r="N21" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21">
         <v>0</v>
@@ -1690,13 +1690,13 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A22">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B22" t="s">
         <v>3</v>
       </c>
       <c r="C22" s="1">
-        <v>43474.609722222223</v>
+        <v>43479.920162037037</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -1708,28 +1708,28 @@
         <v>0</v>
       </c>
       <c r="G22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="J22" t="s">
-        <v>41</v>
+      <c r="J22" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="L22" s="3" t="s">
+      <c r="L22" t="s">
         <v>11</v>
       </c>
       <c r="M22">
         <v>1</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>17</v>
+      <c r="N22" t="s">
+        <v>15</v>
       </c>
       <c r="O22">
         <v>1</v>
@@ -1743,13 +1743,13 @@
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A23">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C23" s="1">
-        <v>43474.443055555559</v>
+        <v>43479.646249999998</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -1758,31 +1758,31 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>11</v>
+      <c r="L23" t="s">
+        <v>10</v>
       </c>
       <c r="M23">
         <v>2</v>
       </c>
       <c r="N23" s="3" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1791,21 +1791,21 @@
         <v>1</v>
       </c>
       <c r="Q23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B24" t="s">
         <v>2</v>
       </c>
       <c r="C24" s="1">
-        <v>43474.484722222223</v>
+        <v>43479.496817129628</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -1814,34 +1814,34 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>9</v>
+      <c r="L24" t="s">
+        <v>10</v>
       </c>
       <c r="M24">
-        <v>1</v>
-      </c>
-      <c r="N24" s="3" t="s">
-        <v>56</v>
+        <v>2</v>
+      </c>
+      <c r="N24" t="s">
+        <v>24</v>
       </c>
       <c r="O24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q24">
         <v>1</v>
@@ -1849,31 +1849,31 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B25" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C25" s="1">
-        <v>43474.357638888891</v>
+        <v>43479.313101851854</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J25" s="3" t="s">
         <v>44</v>
@@ -1881,14 +1881,14 @@
       <c r="K25" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="L25" s="3" t="s">
-        <v>9</v>
+      <c r="L25" t="s">
+        <v>11</v>
       </c>
       <c r="M25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N25" s="3" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="O25">
         <v>0</v>
@@ -1908,7 +1908,7 @@
         <v>3</v>
       </c>
       <c r="C26" s="1">
-        <v>43473.313101851854</v>
+        <v>43478.609722222223</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -1923,31 +1923,31 @@
         <v>1</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>44</v>
+      <c r="J26" t="s">
+        <v>41</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="L26" t="s">
+      <c r="L26" s="3" t="s">
         <v>11</v>
       </c>
       <c r="M26">
         <v>1</v>
       </c>
       <c r="N26" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q26">
         <v>0</v>
@@ -1955,105 +1955,105 @@
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A27">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B27" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C27" s="1">
-        <v>43473.322974537034</v>
+        <v>43478.443055555559</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="L27" t="s">
-        <v>9</v>
+      <c r="L27" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="M27">
-        <v>1</v>
-      </c>
-      <c r="N27" t="s">
-        <v>19</v>
+        <v>2</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="O27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A28">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B28" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C28" s="1">
-        <v>43472.823182870372</v>
+        <v>43478.484722222223</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28">
         <v>0</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="K28" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="L28" t="s">
-        <v>11</v>
+      <c r="L28" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="M28">
-        <v>2</v>
-      </c>
-      <c r="N28" t="s">
-        <v>20</v>
+        <v>1</v>
+      </c>
+      <c r="N28" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="O28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q28">
         <v>1</v>
@@ -2061,13 +2061,13 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B29" t="s">
         <v>2</v>
       </c>
       <c r="C29" s="1">
-        <v>43472.354421296295</v>
+        <v>43478.357638888891</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -2082,31 +2082,31 @@
         <v>0</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="L29" t="s">
-        <v>10</v>
+      <c r="L29" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="M29">
-        <v>1</v>
-      </c>
-      <c r="N29" t="s">
-        <v>17</v>
+        <v>2</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="O29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q29">
         <v>0</v>
@@ -2114,13 +2114,13 @@
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B30" t="s">
         <v>2</v>
       </c>
       <c r="C30" s="1">
-        <v>43472.620393518519</v>
+        <v>43477.496817129628</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -2132,7 +2132,7 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30" s="3" t="s">
         <v>34</v>
@@ -2150,10 +2150,10 @@
         <v>10</v>
       </c>
       <c r="M30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N30" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="O30">
         <v>0</v>
@@ -2162,7 +2162,7 @@
         <v>1</v>
       </c>
       <c r="Q30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.35">
@@ -2173,49 +2173,49 @@
         <v>2</v>
       </c>
       <c r="C31" s="1">
-        <v>43472.862523148149</v>
+        <v>43477.484722222223</v>
       </c>
       <c r="D31">
         <v>1</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31">
         <v>0</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="K31" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="L31" t="s">
-        <v>22</v>
+      <c r="L31" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="M31">
         <v>1</v>
       </c>
-      <c r="N31" t="s">
-        <v>20</v>
+      <c r="N31" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="O31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.35">
@@ -2226,7 +2226,7 @@
         <v>2</v>
       </c>
       <c r="C32" s="1">
-        <v>43471.496817129628</v>
+        <v>43477.357638888891</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -2238,13 +2238,13 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>44</v>
@@ -2252,14 +2252,14 @@
       <c r="K32" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="L32" t="s">
-        <v>10</v>
+      <c r="L32" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="M32">
         <v>2</v>
       </c>
-      <c r="N32" t="s">
-        <v>24</v>
+      <c r="N32" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="O32">
         <v>0</v>
@@ -2268,7 +2268,7 @@
         <v>1</v>
       </c>
       <c r="Q32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.35">
@@ -2279,7 +2279,7 @@
         <v>3</v>
       </c>
       <c r="C33" s="1">
-        <v>43470.313101851854</v>
+        <v>43477.313101851854</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -2332,7 +2332,7 @@
         <v>3</v>
       </c>
       <c r="C34" s="1">
-        <v>43469.609722222223</v>
+        <v>43477.609722222223</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -2379,55 +2379,55 @@
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A35">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B35" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C35" s="1">
-        <v>43469.484722222223</v>
+        <v>43476.354421296295</v>
       </c>
       <c r="D35">
         <v>0</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G35">
         <v>0</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>11</v>
+      <c r="L35" t="s">
+        <v>10</v>
       </c>
       <c r="M35">
-        <v>2</v>
-      </c>
-      <c r="N35" s="3" t="s">
-        <v>58</v>
+        <v>1</v>
+      </c>
+      <c r="N35" t="s">
+        <v>17</v>
       </c>
       <c r="O35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.35">
@@ -2438,10 +2438,10 @@
         <v>2</v>
       </c>
       <c r="C36" s="1">
-        <v>43469.443055555559</v>
+        <v>43476.620393518519</v>
       </c>
       <c r="D36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -2453,48 +2453,48 @@
         <v>0</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="K36" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="L36" s="3" t="s">
-        <v>9</v>
+      <c r="L36" t="s">
+        <v>10</v>
       </c>
       <c r="M36">
         <v>1</v>
       </c>
-      <c r="N36" s="3" t="s">
-        <v>56</v>
+      <c r="N36" t="s">
+        <v>21</v>
       </c>
       <c r="O36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A37">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B37" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C37" s="1">
-        <v>43468.920162037037</v>
+        <v>43476.862523148149</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2506,31 +2506,31 @@
         <v>0</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="K37" s="3" t="s">
         <v>44</v>
       </c>
       <c r="L37" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="M37">
         <v>1</v>
       </c>
       <c r="N37" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="O37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q37">
         <v>0</v>
@@ -2538,13 +2538,13 @@
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B38" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C38" s="1">
-        <v>43468.646249999998</v>
+        <v>43476.313101851854</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -2553,31 +2553,31 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="K38" s="3" t="s">
         <v>44</v>
       </c>
       <c r="L38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N38" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="O38">
         <v>0</v>
@@ -2591,84 +2591,84 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A39">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B39" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C39" s="1">
-        <v>43467.496817129628</v>
+        <v>43476.609722222223</v>
       </c>
       <c r="D39">
         <v>0</v>
       </c>
       <c r="E39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G39">
         <v>1</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J39" s="3" t="s">
-        <v>44</v>
+        <v>44</v>
+      </c>
+      <c r="J39" t="s">
+        <v>41</v>
       </c>
       <c r="K39" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="L39" t="s">
-        <v>10</v>
+      <c r="L39" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="M39">
-        <v>2</v>
-      </c>
-      <c r="N39" t="s">
-        <v>24</v>
+        <v>1</v>
+      </c>
+      <c r="N39" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="O39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A40">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B40" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C40" s="1">
-        <v>43466.496817129628</v>
+        <v>43476.484722222223</v>
       </c>
       <c r="D40">
         <v>0</v>
       </c>
       <c r="E40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="J40" s="3" t="s">
         <v>44</v>
@@ -2676,14 +2676,14 @@
       <c r="K40" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="L40" t="s">
-        <v>10</v>
+      <c r="L40" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="M40">
         <v>2</v>
       </c>
-      <c r="N40" t="s">
-        <v>24</v>
+      <c r="N40" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="O40">
         <v>0</v>
@@ -2697,13 +2697,13 @@
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A41">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B41" t="s">
         <v>3</v>
       </c>
       <c r="C41" s="1">
-        <v>43465.313101851854</v>
+        <v>43475.920162037037</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -2715,16 +2715,16 @@
         <v>0</v>
       </c>
       <c r="G41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>44</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>44</v>
@@ -2735,14 +2735,14 @@
       <c r="M41">
         <v>1</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>18</v>
+      <c r="N41" t="s">
+        <v>15</v>
       </c>
       <c r="O41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q41">
         <v>0</v>
@@ -2750,13 +2750,13 @@
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B42" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C42" s="1">
-        <v>43464.609722222223</v>
+        <v>43475.646249999998</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -2765,37 +2765,37 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="J42" t="s">
-        <v>41</v>
+        <v>45</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>11</v>
+      <c r="L42" t="s">
+        <v>10</v>
       </c>
       <c r="M42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N42" s="3" t="s">
         <v>17</v>
       </c>
       <c r="O42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q42">
         <v>0</v>
@@ -2803,31 +2803,31 @@
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A43">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B43" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C43" s="1">
-        <v>43464.484722222223</v>
+        <v>43475.496817129628</v>
       </c>
       <c r="D43">
         <v>0</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>44</v>
@@ -2835,14 +2835,14 @@
       <c r="K43" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>11</v>
+      <c r="L43" t="s">
+        <v>10</v>
       </c>
       <c r="M43">
         <v>2</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>58</v>
+      <c r="N43" t="s">
+        <v>24</v>
       </c>
       <c r="O43">
         <v>0</v>
@@ -2856,16 +2856,16 @@
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A44">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B44" t="s">
         <v>2</v>
       </c>
       <c r="C44" s="1">
-        <v>43464.443055555559</v>
+        <v>43475.496817129628</v>
       </c>
       <c r="D44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -2874,34 +2874,34 @@
         <v>1</v>
       </c>
       <c r="G44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="K44" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>9</v>
+      <c r="L44" t="s">
+        <v>10</v>
       </c>
       <c r="M44">
-        <v>1</v>
-      </c>
-      <c r="N44" s="3" t="s">
-        <v>56</v>
+        <v>2</v>
+      </c>
+      <c r="N44" t="s">
+        <v>24</v>
       </c>
       <c r="O44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q44">
         <v>1</v>
@@ -2909,13 +2909,13 @@
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A45">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B45" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C45" s="1">
-        <v>43463.920162037037</v>
+        <v>43475.646249999998</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -2924,37 +2924,37 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G45">
         <v>0</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>44</v>
       </c>
       <c r="L45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M45">
-        <v>1</v>
-      </c>
-      <c r="N45" t="s">
-        <v>15</v>
+        <v>2</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="O45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q45">
         <v>0</v>
@@ -2962,34 +2962,34 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A46">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B46" t="s">
         <v>2</v>
       </c>
       <c r="C46" s="1">
-        <v>43463.646249999998</v>
+        <v>43475.496817129628</v>
       </c>
       <c r="D46">
         <v>0</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F46">
         <v>1</v>
       </c>
       <c r="G46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>44</v>
@@ -2998,10 +2998,10 @@
         <v>10</v>
       </c>
       <c r="M46">
-        <v>2</v>
-      </c>
-      <c r="N46" s="3" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+      <c r="N46" t="s">
+        <v>24</v>
       </c>
       <c r="O46">
         <v>0</v>
@@ -3010,36 +3010,36 @@
         <v>1</v>
       </c>
       <c r="Q46">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A47">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B47" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C47" s="1">
-        <v>43462.496817129628</v>
+        <v>43475.313101851854</v>
       </c>
       <c r="D47">
         <v>0</v>
       </c>
       <c r="E47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G47">
         <v>1</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>44</v>
@@ -3048,13 +3048,13 @@
         <v>44</v>
       </c>
       <c r="L47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M47">
-        <v>2</v>
-      </c>
-      <c r="N47" t="s">
-        <v>24</v>
+        <v>1</v>
+      </c>
+      <c r="N47" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="O47">
         <v>0</v>
@@ -3063,7 +3063,7 @@
         <v>1</v>
       </c>
       <c r="Q47">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.35">
@@ -3074,7 +3074,7 @@
         <v>3</v>
       </c>
       <c r="C48" s="1">
-        <v>43461.313101851854</v>
+        <v>43474.609722222223</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -3089,31 +3089,31 @@
         <v>1</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>44</v>
+      <c r="J48" t="s">
+        <v>41</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="L48" t="s">
+      <c r="L48" s="3" t="s">
         <v>11</v>
       </c>
       <c r="M48">
         <v>1</v>
       </c>
       <c r="N48" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q48">
         <v>0</v>
@@ -3121,13 +3121,13 @@
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A49">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B49" t="s">
         <v>3</v>
       </c>
       <c r="C49" s="1">
-        <v>43461.609722222223</v>
+        <v>43474.443055555559</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -3139,16 +3139,16 @@
         <v>0</v>
       </c>
       <c r="G49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="J49" t="s">
-        <v>41</v>
+        <v>57</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>44</v>
@@ -3157,69 +3157,69 @@
         <v>11</v>
       </c>
       <c r="M49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N49" s="3" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="O49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q49">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A50">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B50" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C50" s="1">
-        <v>43461.443055555559</v>
+        <v>43474.484722222223</v>
       </c>
       <c r="D50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G50">
         <v>0</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="K50" s="3" t="s">
         <v>44</v>
       </c>
       <c r="L50" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N50" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="O50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q50">
         <v>1</v>
@@ -3233,7 +3233,7 @@
         <v>2</v>
       </c>
       <c r="C51" s="1">
-        <v>43460.496817129628</v>
+        <v>43474.357638888891</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -3245,13 +3245,13 @@
         <v>1</v>
       </c>
       <c r="G51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="J51" s="3" t="s">
         <v>44</v>
@@ -3259,14 +3259,14 @@
       <c r="K51" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="L51" t="s">
-        <v>10</v>
+      <c r="L51" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="M51">
         <v>2</v>
       </c>
-      <c r="N51" t="s">
-        <v>24</v>
+      <c r="N51" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="O51">
         <v>0</v>
@@ -3275,7 +3275,7 @@
         <v>1</v>
       </c>
       <c r="Q51">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.35">
@@ -3286,7 +3286,7 @@
         <v>3</v>
       </c>
       <c r="C52" s="1">
-        <v>43460.313101851854</v>
+        <v>43473.313101851854</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -3333,46 +3333,46 @@
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A53">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B53" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C53" s="1">
-        <v>43459.609722222223</v>
+        <v>43473.322974537034</v>
       </c>
       <c r="D53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G53">
         <v>1</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I53" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="J53" t="s">
-        <v>41</v>
+      <c r="J53" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="K53" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="L53" s="3" t="s">
-        <v>11</v>
+      <c r="L53" t="s">
+        <v>9</v>
       </c>
       <c r="M53">
         <v>1</v>
       </c>
-      <c r="N53" s="3" t="s">
-        <v>17</v>
+      <c r="N53" t="s">
+        <v>19</v>
       </c>
       <c r="O53">
         <v>1</v>
@@ -3392,7 +3392,7 @@
         <v>3</v>
       </c>
       <c r="C54" s="1">
-        <v>43458.920162037037</v>
+        <v>43472.823182870372</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -3407,13 +3407,13 @@
         <v>0</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>44</v>
@@ -3422,19 +3422,19 @@
         <v>11</v>
       </c>
       <c r="M54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N54" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="O54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q54">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.35">
@@ -3445,13 +3445,13 @@
         <v>2</v>
       </c>
       <c r="C55" s="1">
-        <v>43458.646249999998</v>
+        <v>43472.354421296295</v>
       </c>
       <c r="D55">
         <v>0</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F55">
         <v>1</v>
@@ -3460,13 +3460,13 @@
         <v>0</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K55" s="3" t="s">
         <v>44</v>
@@ -3475,16 +3475,16 @@
         <v>10</v>
       </c>
       <c r="M55">
-        <v>2</v>
-      </c>
-      <c r="N55" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="N55" t="s">
         <v>17</v>
       </c>
       <c r="O55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q55">
         <v>0</v>
@@ -3492,13 +3492,13 @@
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A56">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B56" t="s">
         <v>2</v>
       </c>
       <c r="C56" s="1">
-        <v>43458.496817129628</v>
+        <v>43472.620393518519</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -3510,7 +3510,7 @@
         <v>1</v>
       </c>
       <c r="G56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H56" s="3" t="s">
         <v>34</v>
@@ -3528,10 +3528,10 @@
         <v>10</v>
       </c>
       <c r="M56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N56" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="O56">
         <v>0</v>
@@ -3540,21 +3540,21 @@
         <v>1</v>
       </c>
       <c r="Q56">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B57" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C57" s="1">
-        <v>43457.313101851854</v>
+        <v>43472.862523148149</v>
       </c>
       <c r="D57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -3563,13 +3563,13 @@
         <v>0</v>
       </c>
       <c r="G57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>44</v>
@@ -3578,13 +3578,13 @@
         <v>44</v>
       </c>
       <c r="L57" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="M57">
         <v>1</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>18</v>
+      <c r="N57" t="s">
+        <v>20</v>
       </c>
       <c r="O57">
         <v>0</v>
@@ -3598,66 +3598,66 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A58">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B58" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C58" s="1">
-        <v>43457.609722222223</v>
+        <v>43471.496817129628</v>
       </c>
       <c r="D58">
         <v>0</v>
       </c>
       <c r="E58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G58">
         <v>1</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="J58" t="s">
-        <v>41</v>
+        <v>34</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>11</v>
+      <c r="L58" t="s">
+        <v>10</v>
       </c>
       <c r="M58">
-        <v>1</v>
-      </c>
-      <c r="N58" s="3" t="s">
-        <v>17</v>
+        <v>2</v>
+      </c>
+      <c r="N58" t="s">
+        <v>24</v>
       </c>
       <c r="O58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q58">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A59">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B59" t="s">
         <v>3</v>
       </c>
       <c r="C59" s="1">
-        <v>43457.443055555559</v>
+        <v>43470.313101851854</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -3669,13 +3669,13 @@
         <v>0</v>
       </c>
       <c r="G59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>44</v>
@@ -3683,14 +3683,14 @@
       <c r="K59" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="L59" s="3" t="s">
+      <c r="L59" t="s">
         <v>11</v>
       </c>
       <c r="M59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N59" s="3" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="O59">
         <v>0</v>
@@ -3699,51 +3699,51 @@
         <v>1</v>
       </c>
       <c r="Q59">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B60" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C60" s="1">
-        <v>43457.484722222223</v>
+        <v>43469.609722222223</v>
       </c>
       <c r="D60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>55</v>
+      <c r="J60" t="s">
+        <v>41</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>44</v>
       </c>
       <c r="L60" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="M60">
         <v>1</v>
       </c>
       <c r="N60" s="3" t="s">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="O60">
         <v>1</v>
@@ -3752,36 +3752,36 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A61">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B61" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C61" s="1">
-        <v>43456.357638888891</v>
+        <v>43469.484722222223</v>
       </c>
       <c r="D61">
         <v>0</v>
       </c>
       <c r="E61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G61">
         <v>0</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="I61" s="3" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="J61" s="3" t="s">
         <v>44</v>
@@ -3790,13 +3790,13 @@
         <v>44</v>
       </c>
       <c r="L61" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="M61">
         <v>2</v>
       </c>
       <c r="N61" s="3" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="O61">
         <v>0</v>
@@ -3805,104 +3805,104 @@
         <v>1</v>
       </c>
       <c r="Q61">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B62" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C62" s="1">
-        <v>43455.313101851854</v>
+        <v>43469.443055555559</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>44</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="L62" t="s">
-        <v>11</v>
+      <c r="L62" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="M62">
         <v>1</v>
       </c>
       <c r="N62" s="3" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="O62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q62">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A63">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B63" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C63" s="1">
-        <v>43455.322974537034</v>
+        <v>43468.920162037037</v>
       </c>
       <c r="D63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I63" s="3" t="s">
         <v>44</v>
       </c>
       <c r="J63" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K63" s="3" t="s">
         <v>44</v>
       </c>
       <c r="L63" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="M63">
         <v>1</v>
       </c>
       <c r="N63" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="O63">
         <v>1</v>
@@ -3916,13 +3916,13 @@
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A64">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B64" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C64" s="1">
-        <v>43454.823182870372</v>
+        <v>43468.646249999998</v>
       </c>
       <c r="D64">
         <v>0</v>
@@ -3931,31 +3931,31 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G64">
         <v>0</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="J64" s="3" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K64" s="3" t="s">
         <v>44</v>
       </c>
       <c r="L64" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M64">
         <v>2</v>
       </c>
-      <c r="N64" t="s">
-        <v>20</v>
+      <c r="N64" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="O64">
         <v>0</v>
@@ -3964,18 +3964,18 @@
         <v>1</v>
       </c>
       <c r="Q64">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A65">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B65" t="s">
         <v>2</v>
       </c>
       <c r="C65" s="1">
-        <v>43454.354421296295</v>
+        <v>43467.496817129628</v>
       </c>
       <c r="D65">
         <v>0</v>
@@ -3987,16 +3987,16 @@
         <v>1</v>
       </c>
       <c r="G65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H65" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="I65" s="3" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="J65" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="K65" s="3" t="s">
         <v>44</v>
@@ -4005,30 +4005,30 @@
         <v>10</v>
       </c>
       <c r="M65">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N65" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="O65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q65">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A66">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B66" t="s">
         <v>2</v>
       </c>
       <c r="C66" s="1">
-        <v>43454.620393518519</v>
+        <v>43466.496817129628</v>
       </c>
       <c r="D66">
         <v>0</v>
@@ -4040,7 +4040,7 @@
         <v>1</v>
       </c>
       <c r="G66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>34</v>
@@ -4058,10 +4058,10 @@
         <v>10</v>
       </c>
       <c r="M66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N66" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="O66">
         <v>0</v>
@@ -4070,36 +4070,36 @@
         <v>1</v>
       </c>
       <c r="Q66">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A67">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B67" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C67" s="1">
-        <v>43453.496817129628</v>
+        <v>43465.313101851854</v>
       </c>
       <c r="D67">
         <v>0</v>
       </c>
       <c r="E67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G67">
         <v>1</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I67" s="3" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="J67" s="3" t="s">
         <v>44</v>
@@ -4108,13 +4108,13 @@
         <v>44</v>
       </c>
       <c r="L67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M67">
-        <v>2</v>
-      </c>
-      <c r="N67" t="s">
-        <v>24</v>
+        <v>1</v>
+      </c>
+      <c r="N67" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="O67">
         <v>0</v>
@@ -4123,7 +4123,7 @@
         <v>1</v>
       </c>
       <c r="Q67">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.35">
@@ -4134,7 +4134,7 @@
         <v>3</v>
       </c>
       <c r="C68" s="1">
-        <v>43453.313101851854</v>
+        <v>43464.609722222223</v>
       </c>
       <c r="D68">
         <v>0</v>
@@ -4149,31 +4149,31 @@
         <v>1</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="I68" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="J68" s="3" t="s">
-        <v>44</v>
+      <c r="J68" t="s">
+        <v>41</v>
       </c>
       <c r="K68" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="L68" t="s">
+      <c r="L68" s="3" t="s">
         <v>11</v>
       </c>
       <c r="M68">
         <v>1</v>
       </c>
       <c r="N68" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q68">
         <v>0</v>
@@ -4181,13 +4181,13 @@
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A69">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B69" t="s">
         <v>3</v>
       </c>
       <c r="C69" s="1">
-        <v>43452.609722222223</v>
+        <v>43464.484722222223</v>
       </c>
       <c r="D69">
         <v>0</v>
@@ -4199,16 +4199,16 @@
         <v>0</v>
       </c>
       <c r="G69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="I69" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="J69" t="s">
-        <v>41</v>
+        <v>57</v>
+      </c>
+      <c r="J69" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="K69" s="3" t="s">
         <v>44</v>
@@ -4217,63 +4217,63 @@
         <v>11</v>
       </c>
       <c r="M69">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N69" s="3" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="O69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q69">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A70">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B70" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C70" s="1">
-        <v>43451.920162037037</v>
+        <v>43464.443055555559</v>
       </c>
       <c r="D70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G70">
         <v>0</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="I70" s="3" t="s">
         <v>44</v>
       </c>
       <c r="J70" s="3" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="K70" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="L70" t="s">
-        <v>11</v>
+      <c r="L70" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="M70">
         <v>1</v>
       </c>
-      <c r="N70" t="s">
-        <v>15</v>
+      <c r="N70" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="O70">
         <v>1</v>
@@ -4282,18 +4282,18 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A71">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C71" s="1">
-        <v>43451.646249999998</v>
+        <v>43463.920162037037</v>
       </c>
       <c r="D71">
         <v>0</v>
@@ -4302,37 +4302,37 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G71">
         <v>0</v>
       </c>
       <c r="H71" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I71" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J71" s="3" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="K71" s="3" t="s">
         <v>44</v>
       </c>
       <c r="L71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M71">
-        <v>2</v>
-      </c>
-      <c r="N71" s="3" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+      <c r="N71" t="s">
+        <v>15</v>
       </c>
       <c r="O71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q71">
         <v>0</v>
@@ -4346,13 +4346,13 @@
         <v>2</v>
       </c>
       <c r="C72" s="1">
-        <v>43383.370150462964</v>
+        <v>43463.646249999998</v>
       </c>
       <c r="D72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F72">
         <v>1</v>
@@ -4361,25 +4361,25 @@
         <v>0</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I72" s="3" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="J72" s="3" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>44</v>
       </c>
       <c r="L72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M72">
         <v>2</v>
       </c>
-      <c r="N72" t="s">
-        <v>14</v>
+      <c r="N72" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="O72">
         <v>0</v>
@@ -4388,7 +4388,7 @@
         <v>1</v>
       </c>
       <c r="Q72">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.35">
@@ -4398,8 +4398,8 @@
       <c r="B73" t="s">
         <v>2</v>
       </c>
-      <c r="C73" s="2">
-        <v>43383.455150462964</v>
+      <c r="C73" s="1">
+        <v>43462.496817129628</v>
       </c>
       <c r="D73">
         <v>0</v>
@@ -4446,13 +4446,13 @@
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A74">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B74" t="s">
         <v>3</v>
       </c>
       <c r="C74" s="1">
-        <v>43382.920162037037</v>
+        <v>43461.313101851854</v>
       </c>
       <c r="D74">
         <v>0</v>
@@ -4464,16 +4464,16 @@
         <v>0</v>
       </c>
       <c r="G74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I74" s="3" t="s">
         <v>44</v>
       </c>
       <c r="J74" s="3" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="K74" s="3" t="s">
         <v>44</v>
@@ -4484,14 +4484,14 @@
       <c r="M74">
         <v>1</v>
       </c>
-      <c r="N74" t="s">
-        <v>15</v>
+      <c r="N74" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="O74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q74">
         <v>0</v>
@@ -4499,13 +4499,13 @@
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B75" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C75" s="1">
-        <v>43383.646249999998</v>
+        <v>43461.609722222223</v>
       </c>
       <c r="D75">
         <v>0</v>
@@ -4514,37 +4514,37 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H75" s="3" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="I75" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="J75" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
+      </c>
+      <c r="J75" t="s">
+        <v>41</v>
       </c>
       <c r="K75" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="L75" t="s">
-        <v>10</v>
+      <c r="L75" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="M75">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N75" s="3" t="s">
         <v>17</v>
       </c>
       <c r="O75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q75">
         <v>0</v>
@@ -4552,13 +4552,13 @@
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A76">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B76" t="s">
         <v>3</v>
       </c>
       <c r="C76" s="1">
-        <v>43381.313101851854</v>
+        <v>43461.443055555559</v>
       </c>
       <c r="D76">
         <v>0</v>
@@ -4570,13 +4570,13 @@
         <v>0</v>
       </c>
       <c r="G76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H76" s="3" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="I76" s="3" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>44</v>
@@ -4584,14 +4584,14 @@
       <c r="K76" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="L76" t="s">
+      <c r="L76" s="3" t="s">
         <v>11</v>
       </c>
       <c r="M76">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N76" s="3" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="O76">
         <v>0</v>
@@ -4600,7 +4600,7 @@
         <v>1</v>
       </c>
       <c r="Q76">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.35">
@@ -4611,10 +4611,10 @@
         <v>2</v>
       </c>
       <c r="C77" s="1">
-        <v>43381.322974537034</v>
+        <v>43460.496817129628</v>
       </c>
       <c r="D77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E77">
         <v>1</v>
@@ -4626,45 +4626,45 @@
         <v>1</v>
       </c>
       <c r="H77" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="I77" s="3" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="J77" s="3" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="K77" s="3" t="s">
         <v>44</v>
       </c>
       <c r="L77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M77">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N77" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q77">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A78">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B78" t="s">
         <v>3</v>
       </c>
       <c r="C78" s="1">
-        <v>43380.823182870372</v>
+        <v>43460.313101851854</v>
       </c>
       <c r="D78">
         <v>0</v>
@@ -4676,13 +4676,13 @@
         <v>0</v>
       </c>
       <c r="G78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I78" s="3" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J78" s="3" t="s">
         <v>44</v>
@@ -4694,10 +4694,10 @@
         <v>11</v>
       </c>
       <c r="M78">
-        <v>2</v>
-      </c>
-      <c r="N78" t="s">
-        <v>20</v>
+        <v>1</v>
+      </c>
+      <c r="N78" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="O78">
         <v>0</v>
@@ -4706,50 +4706,50 @@
         <v>1</v>
       </c>
       <c r="Q78">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A79">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B79" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C79" s="1">
-        <v>43380.354421296295</v>
+        <v>43459.609722222223</v>
       </c>
       <c r="D79">
         <v>0</v>
       </c>
       <c r="E79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H79" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I79" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J79" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
+      </c>
+      <c r="J79" t="s">
+        <v>41</v>
       </c>
       <c r="K79" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="L79" t="s">
-        <v>10</v>
+      <c r="L79" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="M79">
         <v>1</v>
       </c>
-      <c r="N79" t="s">
+      <c r="N79" s="3" t="s">
         <v>17</v>
       </c>
       <c r="O79">
@@ -4764,52 +4764,52 @@
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A80">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B80" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C80" s="1">
-        <v>43380.620393518519</v>
+        <v>43458.920162037037</v>
       </c>
       <c r="D80">
         <v>0</v>
       </c>
       <c r="E80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G80">
         <v>0</v>
       </c>
       <c r="H80" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I80" s="3" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="J80" s="3" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="K80" s="3" t="s">
         <v>44</v>
       </c>
       <c r="L80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M80">
         <v>1</v>
       </c>
       <c r="N80" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="O80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q80">
         <v>0</v>
@@ -4823,40 +4823,40 @@
         <v>2</v>
       </c>
       <c r="C81" s="1">
-        <v>43380.862523148149</v>
+        <v>43458.646249999998</v>
       </c>
       <c r="D81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E81">
         <v>0</v>
       </c>
       <c r="F81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G81">
         <v>0</v>
       </c>
       <c r="H81" s="3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="I81" s="3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="J81" s="3" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>44</v>
       </c>
       <c r="L81" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="M81">
-        <v>1</v>
-      </c>
-      <c r="N81" t="s">
-        <v>20</v>
+        <v>2</v>
+      </c>
+      <c r="N81" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="O81">
         <v>0</v>
@@ -4876,10 +4876,10 @@
         <v>2</v>
       </c>
       <c r="C82" s="1">
-        <v>43350.411365740743</v>
+        <v>43458.496817129628</v>
       </c>
       <c r="D82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E82">
         <v>1</v>
@@ -4888,87 +4888,87 @@
         <v>1</v>
       </c>
       <c r="G82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H82" s="3" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="I82" s="3" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="J82" s="3" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="K82" s="3" t="s">
         <v>44</v>
       </c>
       <c r="L82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M82">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N82" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q82">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A83">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B83" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C83" s="1">
-        <v>43350.411111111112</v>
+        <v>43457.313101851854</v>
       </c>
       <c r="D83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H83" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="I83" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J83" s="3" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>44</v>
       </c>
       <c r="L83" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="M83">
         <v>1</v>
       </c>
-      <c r="N83" t="s">
-        <v>23</v>
+      <c r="N83" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="O83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q83">
         <v>0</v>
@@ -4976,69 +4976,1447 @@
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A84">
+        <v>2</v>
+      </c>
+      <c r="B84" t="s">
+        <v>3</v>
+      </c>
+      <c r="C84" s="1">
+        <v>43457.609722222223</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>1</v>
+      </c>
+      <c r="H84" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I84" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J84" t="s">
+        <v>41</v>
+      </c>
+      <c r="K84" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L84" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M84">
+        <v>1</v>
+      </c>
+      <c r="N84" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O84">
+        <v>1</v>
+      </c>
+      <c r="P84">
+        <v>0</v>
+      </c>
+      <c r="Q84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A85">
         <v>5</v>
       </c>
-      <c r="B84" t="s">
-        <v>3</v>
-      </c>
-      <c r="C84" s="1">
+      <c r="B85" t="s">
+        <v>3</v>
+      </c>
+      <c r="C85" s="1">
+        <v>43457.443055555559</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="H85" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I85" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J85" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K85" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L85" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M85">
+        <v>2</v>
+      </c>
+      <c r="N85" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="O85">
+        <v>0</v>
+      </c>
+      <c r="P85">
+        <v>1</v>
+      </c>
+      <c r="Q85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A86">
+        <v>1</v>
+      </c>
+      <c r="B86" t="s">
+        <v>2</v>
+      </c>
+      <c r="C86" s="1">
+        <v>43457.484722222223</v>
+      </c>
+      <c r="D86">
+        <v>1</v>
+      </c>
+      <c r="E86">
+        <v>1</v>
+      </c>
+      <c r="F86">
+        <v>1</v>
+      </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
+      <c r="H86" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I86" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J86" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K86" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L86" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M86">
+        <v>1</v>
+      </c>
+      <c r="N86" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="O86">
+        <v>1</v>
+      </c>
+      <c r="P86">
+        <v>0</v>
+      </c>
+      <c r="Q86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A87">
+        <v>3</v>
+      </c>
+      <c r="B87" t="s">
+        <v>2</v>
+      </c>
+      <c r="C87" s="1">
+        <v>43456.357638888891</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="E87">
+        <v>1</v>
+      </c>
+      <c r="F87">
+        <v>1</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+      <c r="H87" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I87" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J87" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K87" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L87" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M87">
+        <v>2</v>
+      </c>
+      <c r="N87" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="O87">
+        <v>0</v>
+      </c>
+      <c r="P87">
+        <v>1</v>
+      </c>
+      <c r="Q87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A88">
+        <v>2</v>
+      </c>
+      <c r="B88" t="s">
+        <v>3</v>
+      </c>
+      <c r="C88" s="1">
+        <v>43455.313101851854</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+      <c r="G88">
+        <v>1</v>
+      </c>
+      <c r="H88" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I88" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J88" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K88" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L88" t="s">
+        <v>11</v>
+      </c>
+      <c r="M88">
+        <v>1</v>
+      </c>
+      <c r="N88" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="O88">
+        <v>0</v>
+      </c>
+      <c r="P88">
+        <v>1</v>
+      </c>
+      <c r="Q88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A89">
+        <v>3</v>
+      </c>
+      <c r="B89" t="s">
+        <v>2</v>
+      </c>
+      <c r="C89" s="1">
+        <v>43455.322974537034</v>
+      </c>
+      <c r="D89">
+        <v>1</v>
+      </c>
+      <c r="E89">
+        <v>1</v>
+      </c>
+      <c r="F89">
+        <v>1</v>
+      </c>
+      <c r="G89">
+        <v>1</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K89" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L89" t="s">
+        <v>9</v>
+      </c>
+      <c r="M89">
+        <v>1</v>
+      </c>
+      <c r="N89" t="s">
+        <v>19</v>
+      </c>
+      <c r="O89">
+        <v>1</v>
+      </c>
+      <c r="P89">
+        <v>0</v>
+      </c>
+      <c r="Q89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A90">
+        <v>5</v>
+      </c>
+      <c r="B90" t="s">
+        <v>3</v>
+      </c>
+      <c r="C90" s="1">
+        <v>43454.823182870372</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90">
+        <v>0</v>
+      </c>
+      <c r="H90" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I90" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J90" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K90" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L90" t="s">
+        <v>11</v>
+      </c>
+      <c r="M90">
+        <v>2</v>
+      </c>
+      <c r="N90" t="s">
+        <v>20</v>
+      </c>
+      <c r="O90">
+        <v>0</v>
+      </c>
+      <c r="P90">
+        <v>1</v>
+      </c>
+      <c r="Q90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A91">
+        <v>1</v>
+      </c>
+      <c r="B91" t="s">
+        <v>2</v>
+      </c>
+      <c r="C91" s="1">
+        <v>43454.354421296295</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="E91">
+        <v>1</v>
+      </c>
+      <c r="F91">
+        <v>1</v>
+      </c>
+      <c r="G91">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L91" t="s">
+        <v>10</v>
+      </c>
+      <c r="M91">
+        <v>1</v>
+      </c>
+      <c r="N91" t="s">
+        <v>17</v>
+      </c>
+      <c r="O91">
+        <v>1</v>
+      </c>
+      <c r="P91">
+        <v>0</v>
+      </c>
+      <c r="Q91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A92">
+        <v>1</v>
+      </c>
+      <c r="B92" t="s">
+        <v>2</v>
+      </c>
+      <c r="C92" s="1">
+        <v>43454.620393518519</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+      <c r="E92">
+        <v>1</v>
+      </c>
+      <c r="F92">
+        <v>1</v>
+      </c>
+      <c r="G92">
+        <v>0</v>
+      </c>
+      <c r="H92" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I92" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J92" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K92" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L92" t="s">
+        <v>10</v>
+      </c>
+      <c r="M92">
+        <v>1</v>
+      </c>
+      <c r="N92" t="s">
+        <v>21</v>
+      </c>
+      <c r="O92">
+        <v>0</v>
+      </c>
+      <c r="P92">
+        <v>1</v>
+      </c>
+      <c r="Q92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A93">
+        <v>3</v>
+      </c>
+      <c r="B93" t="s">
+        <v>2</v>
+      </c>
+      <c r="C93" s="1">
+        <v>43453.496817129628</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+      <c r="E93">
+        <v>1</v>
+      </c>
+      <c r="F93">
+        <v>1</v>
+      </c>
+      <c r="G93">
+        <v>1</v>
+      </c>
+      <c r="H93" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I93" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J93" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K93" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L93" t="s">
+        <v>10</v>
+      </c>
+      <c r="M93">
+        <v>2</v>
+      </c>
+      <c r="N93" t="s">
+        <v>24</v>
+      </c>
+      <c r="O93">
+        <v>0</v>
+      </c>
+      <c r="P93">
+        <v>1</v>
+      </c>
+      <c r="Q93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A94">
+        <v>2</v>
+      </c>
+      <c r="B94" t="s">
+        <v>3</v>
+      </c>
+      <c r="C94" s="1">
+        <v>43453.313101851854</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+      <c r="E94">
+        <v>0</v>
+      </c>
+      <c r="F94">
+        <v>0</v>
+      </c>
+      <c r="G94">
+        <v>1</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L94" t="s">
+        <v>11</v>
+      </c>
+      <c r="M94">
+        <v>1</v>
+      </c>
+      <c r="N94" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="O94">
+        <v>0</v>
+      </c>
+      <c r="P94">
+        <v>1</v>
+      </c>
+      <c r="Q94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A95">
+        <v>2</v>
+      </c>
+      <c r="B95" t="s">
+        <v>3</v>
+      </c>
+      <c r="C95" s="1">
+        <v>43452.609722222223</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+      <c r="E95">
+        <v>0</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+      <c r="G95">
+        <v>1</v>
+      </c>
+      <c r="H95" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I95" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J95" t="s">
+        <v>41</v>
+      </c>
+      <c r="K95" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L95" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M95">
+        <v>1</v>
+      </c>
+      <c r="N95" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O95">
+        <v>1</v>
+      </c>
+      <c r="P95">
+        <v>0</v>
+      </c>
+      <c r="Q95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A96">
+        <v>5</v>
+      </c>
+      <c r="B96" t="s">
+        <v>3</v>
+      </c>
+      <c r="C96" s="1">
+        <v>43451.920162037037</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I96" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J96" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K96" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L96" t="s">
+        <v>11</v>
+      </c>
+      <c r="M96">
+        <v>1</v>
+      </c>
+      <c r="N96" t="s">
+        <v>15</v>
+      </c>
+      <c r="O96">
+        <v>1</v>
+      </c>
+      <c r="P96">
+        <v>0</v>
+      </c>
+      <c r="Q96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A97">
+        <v>1</v>
+      </c>
+      <c r="B97" t="s">
+        <v>2</v>
+      </c>
+      <c r="C97" s="1">
+        <v>43451.646249999998</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>1</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I97" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J97" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K97" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L97" t="s">
+        <v>10</v>
+      </c>
+      <c r="M97">
+        <v>2</v>
+      </c>
+      <c r="N97" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O97">
+        <v>0</v>
+      </c>
+      <c r="P97">
+        <v>1</v>
+      </c>
+      <c r="Q97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A98">
+        <v>1</v>
+      </c>
+      <c r="B98" t="s">
+        <v>2</v>
+      </c>
+      <c r="C98" s="1">
+        <v>43383.370150462964</v>
+      </c>
+      <c r="D98">
+        <v>1</v>
+      </c>
+      <c r="E98">
+        <v>1</v>
+      </c>
+      <c r="F98">
+        <v>1</v>
+      </c>
+      <c r="G98">
+        <v>0</v>
+      </c>
+      <c r="H98" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I98" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J98" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K98" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L98" t="s">
+        <v>9</v>
+      </c>
+      <c r="M98">
+        <v>2</v>
+      </c>
+      <c r="N98" t="s">
+        <v>14</v>
+      </c>
+      <c r="O98">
+        <v>0</v>
+      </c>
+      <c r="P98">
+        <v>1</v>
+      </c>
+      <c r="Q98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A99">
+        <v>3</v>
+      </c>
+      <c r="B99" t="s">
+        <v>2</v>
+      </c>
+      <c r="C99" s="2">
+        <v>43383.455150462964</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+      <c r="E99">
+        <v>1</v>
+      </c>
+      <c r="F99">
+        <v>1</v>
+      </c>
+      <c r="G99">
+        <v>1</v>
+      </c>
+      <c r="H99" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I99" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J99" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K99" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L99" t="s">
+        <v>10</v>
+      </c>
+      <c r="M99">
+        <v>2</v>
+      </c>
+      <c r="N99" t="s">
+        <v>24</v>
+      </c>
+      <c r="O99">
+        <v>0</v>
+      </c>
+      <c r="P99">
+        <v>1</v>
+      </c>
+      <c r="Q99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A100">
+        <v>5</v>
+      </c>
+      <c r="B100" t="s">
+        <v>3</v>
+      </c>
+      <c r="C100" s="1">
+        <v>43382.920162037037</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K100" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L100" t="s">
+        <v>11</v>
+      </c>
+      <c r="M100">
+        <v>1</v>
+      </c>
+      <c r="N100" t="s">
+        <v>15</v>
+      </c>
+      <c r="O100">
+        <v>1</v>
+      </c>
+      <c r="P100">
+        <v>0</v>
+      </c>
+      <c r="Q100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A101">
+        <v>1</v>
+      </c>
+      <c r="B101" t="s">
+        <v>2</v>
+      </c>
+      <c r="C101" s="1">
+        <v>43383.646249999998</v>
+      </c>
+      <c r="D101">
+        <v>0</v>
+      </c>
+      <c r="E101">
+        <v>0</v>
+      </c>
+      <c r="F101">
+        <v>1</v>
+      </c>
+      <c r="G101">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K101" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L101" t="s">
+        <v>10</v>
+      </c>
+      <c r="M101">
+        <v>2</v>
+      </c>
+      <c r="N101" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O101">
+        <v>0</v>
+      </c>
+      <c r="P101">
+        <v>1</v>
+      </c>
+      <c r="Q101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A102">
+        <v>2</v>
+      </c>
+      <c r="B102" t="s">
+        <v>3</v>
+      </c>
+      <c r="C102" s="1">
+        <v>43381.313101851854</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>1</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K102" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L102" t="s">
+        <v>11</v>
+      </c>
+      <c r="M102">
+        <v>1</v>
+      </c>
+      <c r="N102" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="O102">
+        <v>0</v>
+      </c>
+      <c r="P102">
+        <v>1</v>
+      </c>
+      <c r="Q102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A103">
+        <v>3</v>
+      </c>
+      <c r="B103" t="s">
+        <v>2</v>
+      </c>
+      <c r="C103" s="1">
+        <v>43381.322974537034</v>
+      </c>
+      <c r="D103">
+        <v>1</v>
+      </c>
+      <c r="E103">
+        <v>1</v>
+      </c>
+      <c r="F103">
+        <v>1</v>
+      </c>
+      <c r="G103">
+        <v>1</v>
+      </c>
+      <c r="H103" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I103" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J103" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K103" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L103" t="s">
+        <v>9</v>
+      </c>
+      <c r="M103">
+        <v>1</v>
+      </c>
+      <c r="N103" t="s">
+        <v>19</v>
+      </c>
+      <c r="O103">
+        <v>1</v>
+      </c>
+      <c r="P103">
+        <v>0</v>
+      </c>
+      <c r="Q103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A104">
+        <v>5</v>
+      </c>
+      <c r="B104" t="s">
+        <v>3</v>
+      </c>
+      <c r="C104" s="1">
+        <v>43380.823182870372</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I104" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J104" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K104" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L104" t="s">
+        <v>11</v>
+      </c>
+      <c r="M104">
+        <v>2</v>
+      </c>
+      <c r="N104" t="s">
+        <v>20</v>
+      </c>
+      <c r="O104">
+        <v>0</v>
+      </c>
+      <c r="P104">
+        <v>1</v>
+      </c>
+      <c r="Q104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A105">
+        <v>1</v>
+      </c>
+      <c r="B105" t="s">
+        <v>2</v>
+      </c>
+      <c r="C105" s="1">
+        <v>43380.354421296295</v>
+      </c>
+      <c r="D105">
+        <v>0</v>
+      </c>
+      <c r="E105">
+        <v>1</v>
+      </c>
+      <c r="F105">
+        <v>1</v>
+      </c>
+      <c r="G105">
+        <v>0</v>
+      </c>
+      <c r="H105" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I105" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J105" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K105" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L105" t="s">
+        <v>10</v>
+      </c>
+      <c r="M105">
+        <v>1</v>
+      </c>
+      <c r="N105" t="s">
+        <v>17</v>
+      </c>
+      <c r="O105">
+        <v>1</v>
+      </c>
+      <c r="P105">
+        <v>0</v>
+      </c>
+      <c r="Q105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A106">
+        <v>1</v>
+      </c>
+      <c r="B106" t="s">
+        <v>2</v>
+      </c>
+      <c r="C106" s="1">
+        <v>43380.620393518519</v>
+      </c>
+      <c r="D106">
+        <v>0</v>
+      </c>
+      <c r="E106">
+        <v>1</v>
+      </c>
+      <c r="F106">
+        <v>1</v>
+      </c>
+      <c r="G106">
+        <v>0</v>
+      </c>
+      <c r="H106" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I106" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J106" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K106" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L106" t="s">
+        <v>10</v>
+      </c>
+      <c r="M106">
+        <v>1</v>
+      </c>
+      <c r="N106" t="s">
+        <v>21</v>
+      </c>
+      <c r="O106">
+        <v>0</v>
+      </c>
+      <c r="P106">
+        <v>1</v>
+      </c>
+      <c r="Q106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A107">
+        <v>1</v>
+      </c>
+      <c r="B107" t="s">
+        <v>2</v>
+      </c>
+      <c r="C107" s="1">
+        <v>43380.862523148149</v>
+      </c>
+      <c r="D107">
+        <v>1</v>
+      </c>
+      <c r="E107">
+        <v>0</v>
+      </c>
+      <c r="F107">
+        <v>0</v>
+      </c>
+      <c r="G107">
+        <v>0</v>
+      </c>
+      <c r="H107" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I107" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J107" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K107" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L107" t="s">
+        <v>22</v>
+      </c>
+      <c r="M107">
+        <v>1</v>
+      </c>
+      <c r="N107" t="s">
+        <v>20</v>
+      </c>
+      <c r="O107">
+        <v>0</v>
+      </c>
+      <c r="P107">
+        <v>1</v>
+      </c>
+      <c r="Q107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A108">
+        <v>3</v>
+      </c>
+      <c r="B108" t="s">
+        <v>2</v>
+      </c>
+      <c r="C108" s="1">
+        <v>43350.411365740743</v>
+      </c>
+      <c r="D108">
+        <v>1</v>
+      </c>
+      <c r="E108">
+        <v>1</v>
+      </c>
+      <c r="F108">
+        <v>1</v>
+      </c>
+      <c r="G108">
+        <v>0</v>
+      </c>
+      <c r="H108" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I108" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J108" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K108" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L108" t="s">
+        <v>9</v>
+      </c>
+      <c r="M108">
+        <v>1</v>
+      </c>
+      <c r="N108" t="s">
+        <v>23</v>
+      </c>
+      <c r="O108">
+        <v>1</v>
+      </c>
+      <c r="P108">
+        <v>0</v>
+      </c>
+      <c r="Q108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A109">
+        <v>1</v>
+      </c>
+      <c r="B109" t="s">
+        <v>2</v>
+      </c>
+      <c r="C109" s="1">
+        <v>43350.411111111112</v>
+      </c>
+      <c r="D109">
+        <v>1</v>
+      </c>
+      <c r="E109">
+        <v>1</v>
+      </c>
+      <c r="F109">
+        <v>1</v>
+      </c>
+      <c r="G109">
+        <v>0</v>
+      </c>
+      <c r="H109" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I109" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J109" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K109" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L109" t="s">
+        <v>9</v>
+      </c>
+      <c r="M109">
+        <v>1</v>
+      </c>
+      <c r="N109" t="s">
+        <v>23</v>
+      </c>
+      <c r="O109">
+        <v>1</v>
+      </c>
+      <c r="P109">
+        <v>0</v>
+      </c>
+      <c r="Q109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A110">
+        <v>5</v>
+      </c>
+      <c r="B110" t="s">
+        <v>3</v>
+      </c>
+      <c r="C110" s="1">
         <v>43382.447916666664</v>
       </c>
-      <c r="D84">
-        <v>0</v>
-      </c>
-      <c r="E84">
-        <v>0</v>
-      </c>
-      <c r="F84">
-        <v>0</v>
-      </c>
-      <c r="G84">
-        <v>0</v>
-      </c>
-      <c r="H84" s="3" t="s">
+      <c r="D110">
+        <v>0</v>
+      </c>
+      <c r="E110">
+        <v>0</v>
+      </c>
+      <c r="F110">
+        <v>0</v>
+      </c>
+      <c r="G110">
+        <v>0</v>
+      </c>
+      <c r="H110" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="I84" s="3" t="s">
+      <c r="I110" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="J84" s="3" t="s">
+      <c r="J110" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="K84" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="L84" t="s">
+      <c r="K110" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L110" t="s">
         <v>10</v>
       </c>
-      <c r="M84">
-        <v>1</v>
-      </c>
-      <c r="N84" t="s">
+      <c r="M110">
+        <v>1</v>
+      </c>
+      <c r="N110" t="s">
         <v>26</v>
       </c>
-      <c r="O84">
-        <v>0</v>
-      </c>
-      <c r="P84">
-        <v>1</v>
-      </c>
-      <c r="Q84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="Q86">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="C93" s="1"/>
-      <c r="H93" s="3"/>
-      <c r="I93" s="3"/>
-      <c r="J93" s="3"/>
-      <c r="K93" s="3"/>
-      <c r="N93" s="3"/>
+      <c r="O110">
+        <v>0</v>
+      </c>
+      <c r="P110">
+        <v>1</v>
+      </c>
+      <c r="Q110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="Q112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="C119" s="1"/>
+      <c r="H119" s="3"/>
+      <c r="I119" s="3"/>
+      <c r="J119" s="3"/>
+      <c r="K119" s="3"/>
+      <c r="N119" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SensorDataFilVers2.xlsx
+++ b/SensorDataFilVers2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bruger\Documents\Bachelorprojekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{A6EAA2FF-F17B-4718-A926-6581694230EA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{31EF45CE-ADCC-4C0C-91CD-250CCF95EBC9}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9070" xr2:uid="{67E6E48D-6249-4DA5-9873-57FE481732B7}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1096" uniqueCount="59">
   <si>
     <t>ID</t>
   </si>
@@ -556,10 +556,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{758D3C2A-ED3E-4A0E-BC8A-DBBB57E283BF}">
-  <dimension ref="A1:R119"/>
+  <dimension ref="A1:R164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="C119" sqref="C119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -895,7 +895,7 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
@@ -1213,13 +1213,13 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C13" s="1">
-        <v>43480.609722222223</v>
+        <v>43481.646249999998</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -1228,37 +1228,37 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="J13" t="s">
-        <v>41</v>
+        <v>45</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="K13" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="L13" s="3" t="s">
-        <v>11</v>
+      <c r="L13" t="s">
+        <v>10</v>
       </c>
       <c r="M13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N13" s="3" t="s">
         <v>17</v>
       </c>
       <c r="O13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q13">
         <v>0</v>
@@ -1266,13 +1266,13 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A14">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B14" t="s">
         <v>3</v>
       </c>
       <c r="C14" s="1">
-        <v>43480.484722222223</v>
+        <v>43480.609722222223</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -1284,16 +1284,16 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>44</v>
+        <v>44</v>
+      </c>
+      <c r="J14" t="s">
+        <v>41</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>44</v>
@@ -1302,69 +1302,69 @@
         <v>11</v>
       </c>
       <c r="M14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A15">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C15" s="1">
-        <v>43480.443055555559</v>
+        <v>43480.484722222223</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>44</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="M15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="O15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15">
         <v>1</v>
@@ -1372,31 +1372,31 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C16" s="1">
-        <v>43480.496817129628</v>
+        <v>43481.313101851854</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="J16" s="3" t="s">
         <v>44</v>
@@ -1405,13 +1405,13 @@
         <v>44</v>
       </c>
       <c r="L16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M16">
-        <v>2</v>
-      </c>
-      <c r="N16" t="s">
-        <v>24</v>
+        <v>1</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1420,74 +1420,74 @@
         <v>1</v>
       </c>
       <c r="Q16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A17">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C17" s="1">
-        <v>43480.484722222223</v>
+        <v>43481.313101851854</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>44</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>9</v>
+      <c r="L17" t="s">
+        <v>11</v>
       </c>
       <c r="M17">
         <v>1</v>
       </c>
       <c r="N17" s="3" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="O17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B18" t="s">
         <v>2</v>
       </c>
       <c r="C18" s="1">
-        <v>43480.357638888891</v>
+        <v>43480.443055555559</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1499,13 +1499,13 @@
         <v>0</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>44</v>
@@ -1514,175 +1514,175 @@
         <v>9</v>
       </c>
       <c r="M18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A19">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C19" s="1">
-        <v>43479.920162037037</v>
+        <v>43480.496817129628</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="K19" s="3" t="s">
         <v>44</v>
       </c>
       <c r="L19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N19" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="O19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C20" s="1">
-        <v>43479.313101851854</v>
+        <v>43480.484722222223</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>44</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="L20" t="s">
-        <v>11</v>
+      <c r="L20" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="M20">
         <v>1</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C21" s="1">
-        <v>43479.609722222223</v>
+        <v>43480.357638888891</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="J21" t="s">
-        <v>41</v>
+        <v>53</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>44</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N21" s="3" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="O21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q21">
         <v>0</v>
@@ -1743,13 +1743,13 @@
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B23" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C23" s="1">
-        <v>43479.646249999998</v>
+        <v>43479.313101851854</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -1758,31 +1758,31 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>44</v>
       </c>
       <c r="L23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N23" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1796,66 +1796,66 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B24" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C24" s="1">
-        <v>43479.496817129628</v>
+        <v>43479.609722222223</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>44</v>
+        <v>44</v>
+      </c>
+      <c r="J24" t="s">
+        <v>41</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="L24" t="s">
-        <v>10</v>
+      <c r="L24" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="M24">
-        <v>2</v>
-      </c>
-      <c r="N24" t="s">
-        <v>24</v>
+        <v>1</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A25">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B25" t="s">
         <v>3</v>
       </c>
       <c r="C25" s="1">
-        <v>43479.313101851854</v>
+        <v>43479.920162037037</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -1867,16 +1867,16 @@
         <v>0</v>
       </c>
       <c r="G25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I25" s="3" t="s">
         <v>44</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="K25" s="3" t="s">
         <v>44</v>
@@ -1887,14 +1887,14 @@
       <c r="M25">
         <v>1</v>
       </c>
-      <c r="N25" s="3" t="s">
-        <v>18</v>
+      <c r="N25" t="s">
+        <v>15</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25">
         <v>0</v>
@@ -1902,13 +1902,13 @@
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B26" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C26" s="1">
-        <v>43478.609722222223</v>
+        <v>43479.646249999998</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -1917,37 +1917,37 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="J26" t="s">
-        <v>41</v>
+        <v>45</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>11</v>
+      <c r="L26" t="s">
+        <v>10</v>
       </c>
       <c r="M26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N26" s="3" t="s">
         <v>17</v>
       </c>
       <c r="O26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q26">
         <v>0</v>
@@ -1955,31 +1955,31 @@
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A27">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B27" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C27" s="1">
-        <v>43478.443055555559</v>
+        <v>43479.496817129628</v>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>44</v>
@@ -1987,14 +1987,14 @@
       <c r="K27" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>11</v>
+      <c r="L27" t="s">
+        <v>10</v>
       </c>
       <c r="M27">
         <v>2</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>58</v>
+      <c r="N27" t="s">
+        <v>24</v>
       </c>
       <c r="O27">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>2</v>
       </c>
       <c r="C28" s="1">
-        <v>43478.484722222223</v>
+        <v>43479.484722222223</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -2067,7 +2067,7 @@
         <v>2</v>
       </c>
       <c r="C29" s="1">
-        <v>43478.357638888891</v>
+        <v>43479.357638888891</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -2114,31 +2114,31 @@
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B30" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C30" s="1">
-        <v>43477.496817129628</v>
+        <v>43479.313101851854</v>
       </c>
       <c r="D30">
         <v>0</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G30">
         <v>1</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="J30" s="3" t="s">
         <v>44</v>
@@ -2147,13 +2147,13 @@
         <v>44</v>
       </c>
       <c r="L30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M30">
-        <v>2</v>
-      </c>
-      <c r="N30" t="s">
-        <v>24</v>
+        <v>1</v>
+      </c>
+      <c r="N30" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="O30">
         <v>0</v>
@@ -2162,89 +2162,89 @@
         <v>1</v>
       </c>
       <c r="Q30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B31" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C31" s="1">
-        <v>43477.484722222223</v>
+        <v>43479.313101851854</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="I31" s="3" t="s">
         <v>44</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="K31" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="L31" s="3" t="s">
-        <v>9</v>
+      <c r="L31" t="s">
+        <v>11</v>
       </c>
       <c r="M31">
         <v>1</v>
       </c>
       <c r="N31" s="3" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="O31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A32">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B32" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C32" s="1">
-        <v>43477.357638888891</v>
+        <v>43479.313101851854</v>
       </c>
       <c r="D32">
         <v>0</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>44</v>
@@ -2252,14 +2252,14 @@
       <c r="K32" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>9</v>
+      <c r="L32" t="s">
+        <v>11</v>
       </c>
       <c r="M32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N32" s="3" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="O32">
         <v>0</v>
@@ -2279,7 +2279,7 @@
         <v>3</v>
       </c>
       <c r="C33" s="1">
-        <v>43477.313101851854</v>
+        <v>43479.609722222223</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -2294,31 +2294,31 @@
         <v>1</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="J33" s="3" t="s">
-        <v>44</v>
+      <c r="J33" t="s">
+        <v>41</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="L33" t="s">
+      <c r="L33" s="3" t="s">
         <v>11</v>
       </c>
       <c r="M33">
         <v>1</v>
       </c>
       <c r="N33" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q33">
         <v>0</v>
@@ -2326,13 +2326,13 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A34">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B34" t="s">
         <v>3</v>
       </c>
       <c r="C34" s="1">
-        <v>43477.609722222223</v>
+        <v>43479.443055555559</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -2344,16 +2344,16 @@
         <v>0</v>
       </c>
       <c r="G34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="J34" t="s">
-        <v>41</v>
+        <v>57</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="K34" s="3" t="s">
         <v>44</v>
@@ -2362,62 +2362,62 @@
         <v>11</v>
       </c>
       <c r="M34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N34" s="3" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="O34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q34">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B35" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C35" s="1">
-        <v>43476.354421296295</v>
+        <v>43478.609722222223</v>
       </c>
       <c r="D35">
         <v>0</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
+      </c>
+      <c r="J35" t="s">
+        <v>41</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="L35" t="s">
-        <v>10</v>
+      <c r="L35" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="M35">
         <v>1</v>
       </c>
-      <c r="N35" t="s">
+      <c r="N35" s="3" t="s">
         <v>17</v>
       </c>
       <c r="O35">
@@ -2432,31 +2432,31 @@
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A36">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B36" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C36" s="1">
-        <v>43476.620393518519</v>
+        <v>43478.443055555559</v>
       </c>
       <c r="D36">
         <v>0</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G36">
         <v>0</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="J36" s="3" t="s">
         <v>44</v>
@@ -2464,14 +2464,14 @@
       <c r="K36" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="L36" t="s">
-        <v>10</v>
+      <c r="L36" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="M36">
-        <v>1</v>
-      </c>
-      <c r="N36" t="s">
-        <v>21</v>
+        <v>2</v>
+      </c>
+      <c r="N36" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="O36">
         <v>0</v>
@@ -2480,7 +2480,7 @@
         <v>1</v>
       </c>
       <c r="Q36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.35">
@@ -2491,78 +2491,78 @@
         <v>2</v>
       </c>
       <c r="C37" s="1">
-        <v>43476.862523148149</v>
+        <v>43478.484722222223</v>
       </c>
       <c r="D37">
         <v>1</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G37">
         <v>0</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="K37" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="L37" t="s">
-        <v>22</v>
+      <c r="L37" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="M37">
         <v>1</v>
       </c>
-      <c r="N37" t="s">
-        <v>20</v>
+      <c r="N37" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="O37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q37">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A38">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B38" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C38" s="1">
-        <v>43476.313101851854</v>
+        <v>43478.496817129628</v>
       </c>
       <c r="D38">
         <v>0</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G38">
         <v>1</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="J38" s="3" t="s">
         <v>44</v>
@@ -2571,13 +2571,13 @@
         <v>44</v>
       </c>
       <c r="L38" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M38">
-        <v>1</v>
-      </c>
-      <c r="N38" s="3" t="s">
-        <v>18</v>
+        <v>2</v>
+      </c>
+      <c r="N38" t="s">
+        <v>24</v>
       </c>
       <c r="O38">
         <v>0</v>
@@ -2586,57 +2586,57 @@
         <v>1</v>
       </c>
       <c r="Q38">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A39">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B39" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C39" s="1">
-        <v>43476.609722222223</v>
+        <v>43478.357638888891</v>
       </c>
       <c r="D39">
         <v>0</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="J39" t="s">
-        <v>41</v>
+        <v>53</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="K39" s="3" t="s">
         <v>44</v>
       </c>
       <c r="L39" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N39" s="3" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="O39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q39">
         <v>0</v>
@@ -2644,31 +2644,31 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A40">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B40" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C40" s="1">
-        <v>43476.484722222223</v>
+        <v>43478.357638888891</v>
       </c>
       <c r="D40">
         <v>0</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G40">
         <v>0</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J40" s="3" t="s">
         <v>44</v>
@@ -2677,13 +2677,13 @@
         <v>44</v>
       </c>
       <c r="L40" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M40">
         <v>2</v>
       </c>
       <c r="N40" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="O40">
         <v>0</v>
@@ -2692,60 +2692,60 @@
         <v>1</v>
       </c>
       <c r="Q40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A41">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B41" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C41" s="1">
-        <v>43475.920162037037</v>
+        <v>43477.496817129628</v>
       </c>
       <c r="D41">
         <v>0</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>44</v>
       </c>
       <c r="L41" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N41" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="O41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q41">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.35">
@@ -2756,13 +2756,13 @@
         <v>2</v>
       </c>
       <c r="C42" s="1">
-        <v>43475.646249999998</v>
+        <v>43477.484722222223</v>
       </c>
       <c r="D42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F42">
         <v>1</v>
@@ -2771,34 +2771,34 @@
         <v>0</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="L42" t="s">
-        <v>10</v>
+      <c r="L42" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="M42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N42" s="3" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="O42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q42">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.35">
@@ -2809,7 +2809,7 @@
         <v>2</v>
       </c>
       <c r="C43" s="1">
-        <v>43475.496817129628</v>
+        <v>43477.357638888891</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -2821,13 +2821,13 @@
         <v>1</v>
       </c>
       <c r="G43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>44</v>
@@ -2835,14 +2835,14 @@
       <c r="K43" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="L43" t="s">
-        <v>10</v>
+      <c r="L43" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="M43">
         <v>2</v>
       </c>
-      <c r="N43" t="s">
-        <v>24</v>
+      <c r="N43" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="O43">
         <v>0</v>
@@ -2851,7 +2851,7 @@
         <v>1</v>
       </c>
       <c r="Q43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.35">
@@ -2862,7 +2862,7 @@
         <v>2</v>
       </c>
       <c r="C44" s="1">
-        <v>43475.496817129628</v>
+        <v>43477.496817129628</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -2915,13 +2915,13 @@
         <v>2</v>
       </c>
       <c r="C45" s="1">
-        <v>43475.646249999998</v>
+        <v>43477.484722222223</v>
       </c>
       <c r="D45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F45">
         <v>1</v>
@@ -2930,34 +2930,34 @@
         <v>0</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="L45" t="s">
-        <v>10</v>
+      <c r="L45" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="M45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N45" s="3" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="O45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q45">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.35">
@@ -2968,7 +2968,7 @@
         <v>2</v>
       </c>
       <c r="C46" s="1">
-        <v>43475.496817129628</v>
+        <v>43477.357638888891</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -2980,13 +2980,13 @@
         <v>1</v>
       </c>
       <c r="G46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>44</v>
@@ -2994,14 +2994,14 @@
       <c r="K46" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="L46" t="s">
-        <v>10</v>
+      <c r="L46" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="M46">
-        <v>1</v>
-      </c>
-      <c r="N46" t="s">
-        <v>24</v>
+        <v>2</v>
+      </c>
+      <c r="N46" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="O46">
         <v>0</v>
@@ -3010,7 +3010,7 @@
         <v>1</v>
       </c>
       <c r="Q46">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.35">
@@ -3021,7 +3021,7 @@
         <v>3</v>
       </c>
       <c r="C47" s="1">
-        <v>43475.313101851854</v>
+        <v>43477.313101851854</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -3074,7 +3074,7 @@
         <v>3</v>
       </c>
       <c r="C48" s="1">
-        <v>43474.609722222223</v>
+        <v>43477.609722222223</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -3127,7 +3127,7 @@
         <v>3</v>
       </c>
       <c r="C49" s="1">
-        <v>43474.443055555559</v>
+        <v>43477.313101851854</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -3139,13 +3139,13 @@
         <v>0</v>
       </c>
       <c r="G49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>44</v>
@@ -3153,14 +3153,14 @@
       <c r="K49" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="L49" s="3" t="s">
+      <c r="L49" t="s">
         <v>11</v>
       </c>
       <c r="M49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N49" s="3" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="O49">
         <v>0</v>
@@ -3169,51 +3169,51 @@
         <v>1</v>
       </c>
       <c r="Q49">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B50" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C50" s="1">
-        <v>43474.484722222223</v>
+        <v>43477.609722222223</v>
       </c>
       <c r="D50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="I50" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="J50" s="3" t="s">
-        <v>55</v>
+      <c r="J50" t="s">
+        <v>41</v>
       </c>
       <c r="K50" s="3" t="s">
         <v>44</v>
       </c>
       <c r="L50" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="M50">
         <v>1</v>
       </c>
       <c r="N50" s="3" t="s">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="O50">
         <v>1</v>
@@ -3222,36 +3222,36 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A51">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B51" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C51" s="1">
-        <v>43474.357638888891</v>
+        <v>43477.443055555559</v>
       </c>
       <c r="D51">
         <v>0</v>
       </c>
       <c r="E51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G51">
         <v>0</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="J51" s="3" t="s">
         <v>44</v>
@@ -3260,13 +3260,13 @@
         <v>44</v>
       </c>
       <c r="L51" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="M51">
         <v>2</v>
       </c>
       <c r="N51" s="3" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="O51">
         <v>0</v>
@@ -3275,57 +3275,57 @@
         <v>1</v>
       </c>
       <c r="Q51">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B52" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C52" s="1">
-        <v>43473.313101851854</v>
+        <v>43476.354421296295</v>
       </c>
       <c r="D52">
         <v>0</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>44</v>
       </c>
       <c r="L52" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M52">
         <v>1</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>18</v>
+      <c r="N52" t="s">
+        <v>17</v>
       </c>
       <c r="O52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q52">
         <v>0</v>
@@ -3333,16 +3333,16 @@
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A53">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B53" t="s">
         <v>2</v>
       </c>
       <c r="C53" s="1">
-        <v>43473.322974537034</v>
+        <v>43476.620393518519</v>
       </c>
       <c r="D53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -3351,34 +3351,34 @@
         <v>1</v>
       </c>
       <c r="G53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="K53" s="3" t="s">
         <v>44</v>
       </c>
       <c r="L53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M53">
         <v>1</v>
       </c>
       <c r="N53" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q53">
         <v>0</v>
@@ -3386,16 +3386,16 @@
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A54">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B54" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C54" s="1">
-        <v>43472.823182870372</v>
+        <v>43476.862523148149</v>
       </c>
       <c r="D54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -3407,10 +3407,10 @@
         <v>0</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>44</v>
@@ -3419,10 +3419,10 @@
         <v>44</v>
       </c>
       <c r="L54" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="M54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N54" t="s">
         <v>20</v>
@@ -3434,57 +3434,57 @@
         <v>1</v>
       </c>
       <c r="Q54">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B55" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C55" s="1">
-        <v>43472.354421296295</v>
+        <v>43476.313101851854</v>
       </c>
       <c r="D55">
         <v>0</v>
       </c>
       <c r="E55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I55" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J55" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K55" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L55" t="s">
+        <v>11</v>
+      </c>
+      <c r="M55">
+        <v>1</v>
+      </c>
+      <c r="N55" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J55" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="K55" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="L55" t="s">
-        <v>10</v>
-      </c>
-      <c r="M55">
-        <v>1</v>
-      </c>
-      <c r="N55" t="s">
-        <v>17</v>
-      </c>
       <c r="O55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q55">
         <v>0</v>
@@ -3492,52 +3492,52 @@
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B56" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C56" s="1">
-        <v>43472.620393518519</v>
+        <v>43476.609722222223</v>
       </c>
       <c r="D56">
         <v>0</v>
       </c>
       <c r="E56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J56" s="3" t="s">
-        <v>44</v>
+        <v>44</v>
+      </c>
+      <c r="J56" t="s">
+        <v>41</v>
       </c>
       <c r="K56" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="L56" t="s">
-        <v>10</v>
+      <c r="L56" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="M56">
         <v>1</v>
       </c>
-      <c r="N56" t="s">
-        <v>21</v>
+      <c r="N56" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="O56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q56">
         <v>0</v>
@@ -3545,16 +3545,16 @@
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A57">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B57" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C57" s="1">
-        <v>43472.862523148149</v>
+        <v>43476.484722222223</v>
       </c>
       <c r="D57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -3566,10 +3566,10 @@
         <v>0</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>44</v>
@@ -3577,14 +3577,14 @@
       <c r="K57" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="L57" t="s">
-        <v>22</v>
+      <c r="L57" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="M57">
-        <v>1</v>
-      </c>
-      <c r="N57" t="s">
-        <v>20</v>
+        <v>2</v>
+      </c>
+      <c r="N57" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="O57">
         <v>0</v>
@@ -3593,71 +3593,71 @@
         <v>1</v>
       </c>
       <c r="Q57">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A58">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B58" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C58" s="1">
-        <v>43471.496817129628</v>
+        <v>43475.920162037037</v>
       </c>
       <c r="D58">
         <v>0</v>
       </c>
       <c r="E58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>44</v>
       </c>
       <c r="L58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N58" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="O58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q58">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B59" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C59" s="1">
-        <v>43470.313101851854</v>
+        <v>43475.646249999998</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -3666,31 +3666,31 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>44</v>
       </c>
       <c r="L59" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N59" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O59">
         <v>0</v>
@@ -3704,84 +3704,84 @@
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A60">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B60" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C60" s="1">
-        <v>43469.609722222223</v>
+        <v>43475.496817129628</v>
       </c>
       <c r="D60">
         <v>0</v>
       </c>
       <c r="E60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G60">
         <v>1</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="J60" t="s">
-        <v>41</v>
+        <v>34</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>11</v>
+      <c r="L60" t="s">
+        <v>10</v>
       </c>
       <c r="M60">
-        <v>1</v>
-      </c>
-      <c r="N60" s="3" t="s">
-        <v>17</v>
+        <v>2</v>
+      </c>
+      <c r="N60" t="s">
+        <v>24</v>
       </c>
       <c r="O60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q60">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A61">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B61" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C61" s="1">
-        <v>43469.484722222223</v>
+        <v>43475.496817129628</v>
       </c>
       <c r="D61">
         <v>0</v>
       </c>
       <c r="E61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="I61" s="3" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="J61" s="3" t="s">
         <v>44</v>
@@ -3789,14 +3789,14 @@
       <c r="K61" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="L61" s="3" t="s">
-        <v>11</v>
+      <c r="L61" t="s">
+        <v>10</v>
       </c>
       <c r="M61">
         <v>2</v>
       </c>
-      <c r="N61" s="3" t="s">
-        <v>58</v>
+      <c r="N61" t="s">
+        <v>24</v>
       </c>
       <c r="O61">
         <v>0</v>
@@ -3816,13 +3816,13 @@
         <v>2</v>
       </c>
       <c r="C62" s="1">
-        <v>43469.443055555559</v>
+        <v>43475.646249999998</v>
       </c>
       <c r="D62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F62">
         <v>1</v>
@@ -3831,98 +3831,98 @@
         <v>0</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>9</v>
+      <c r="L62" t="s">
+        <v>10</v>
       </c>
       <c r="M62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N62" s="3" t="s">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="O62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q62">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A63">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B63" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C63" s="1">
-        <v>43468.920162037037</v>
+        <v>43475.496817129628</v>
       </c>
       <c r="D63">
         <v>0</v>
       </c>
       <c r="E63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I63" s="3" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="J63" s="3" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="K63" s="3" t="s">
         <v>44</v>
       </c>
       <c r="L63" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M63">
         <v>1</v>
       </c>
       <c r="N63" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="O63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q63">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A64">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B64" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C64" s="1">
-        <v>43468.646249999998</v>
+        <v>43475.313101851854</v>
       </c>
       <c r="D64">
         <v>0</v>
@@ -3931,31 +3931,31 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J64" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="K64" s="3" t="s">
         <v>44</v>
       </c>
       <c r="L64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N64" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="O64">
         <v>0</v>
@@ -3969,84 +3969,84 @@
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A65">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B65" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C65" s="1">
-        <v>43467.496817129628</v>
+        <v>43474.609722222223</v>
       </c>
       <c r="D65">
         <v>0</v>
       </c>
       <c r="E65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G65">
         <v>1</v>
       </c>
       <c r="H65" s="3" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="I65" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J65" s="3" t="s">
-        <v>44</v>
+        <v>44</v>
+      </c>
+      <c r="J65" t="s">
+        <v>41</v>
       </c>
       <c r="K65" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="L65" t="s">
-        <v>10</v>
+      <c r="L65" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="M65">
-        <v>2</v>
-      </c>
-      <c r="N65" t="s">
-        <v>24</v>
+        <v>1</v>
+      </c>
+      <c r="N65" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="O65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q65">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A66">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B66" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C66" s="1">
-        <v>43466.496817129628</v>
+        <v>43474.443055555559</v>
       </c>
       <c r="D66">
         <v>0</v>
       </c>
       <c r="E66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="I66" s="3" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>44</v>
@@ -4054,14 +4054,14 @@
       <c r="K66" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="L66" t="s">
-        <v>10</v>
+      <c r="L66" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="M66">
         <v>2</v>
       </c>
-      <c r="N66" t="s">
-        <v>24</v>
+      <c r="N66" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="O66">
         <v>0</v>
@@ -4075,105 +4075,105 @@
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C67" s="1">
-        <v>43465.313101851854</v>
+        <v>43474.484722222223</v>
       </c>
       <c r="D67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="I67" s="3" t="s">
         <v>44</v>
       </c>
       <c r="J67" s="3" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="K67" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="L67" t="s">
-        <v>11</v>
+      <c r="L67" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="M67">
         <v>1</v>
       </c>
       <c r="N67" s="3" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="O67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q67">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A68">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B68" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C68" s="1">
-        <v>43464.609722222223</v>
+        <v>43474.357638888891</v>
       </c>
       <c r="D68">
         <v>0</v>
       </c>
       <c r="E68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="J68" t="s">
-        <v>41</v>
+        <v>53</v>
+      </c>
+      <c r="J68" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="K68" s="3" t="s">
         <v>44</v>
       </c>
       <c r="L68" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M68">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N68" s="3" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="O68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q68">
         <v>0</v>
@@ -4181,31 +4181,31 @@
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A69">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C69" s="1">
-        <v>43464.484722222223</v>
+        <v>43474.496817129628</v>
       </c>
       <c r="D69">
         <v>0</v>
       </c>
       <c r="E69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="I69" s="3" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="J69" s="3" t="s">
         <v>44</v>
@@ -4213,14 +4213,14 @@
       <c r="K69" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="L69" s="3" t="s">
-        <v>11</v>
+      <c r="L69" t="s">
+        <v>10</v>
       </c>
       <c r="M69">
         <v>2</v>
       </c>
-      <c r="N69" s="3" t="s">
-        <v>58</v>
+      <c r="N69" t="s">
+        <v>24</v>
       </c>
       <c r="O69">
         <v>0</v>
@@ -4240,13 +4240,13 @@
         <v>2</v>
       </c>
       <c r="C70" s="1">
-        <v>43464.443055555559</v>
+        <v>43474.646249999998</v>
       </c>
       <c r="D70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F70">
         <v>1</v>
@@ -4255,45 +4255,45 @@
         <v>0</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="I70" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J70" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="K70" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="L70" s="3" t="s">
-        <v>9</v>
+      <c r="L70" t="s">
+        <v>10</v>
       </c>
       <c r="M70">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N70" s="3" t="s">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="O70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q70">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A71">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B71" t="s">
         <v>3</v>
       </c>
       <c r="C71" s="1">
-        <v>43463.920162037037</v>
+        <v>43473.313101851854</v>
       </c>
       <c r="D71">
         <v>0</v>
@@ -4305,16 +4305,16 @@
         <v>0</v>
       </c>
       <c r="G71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H71" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I71" s="3" t="s">
         <v>44</v>
       </c>
       <c r="J71" s="3" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="K71" s="3" t="s">
         <v>44</v>
@@ -4325,14 +4325,14 @@
       <c r="M71">
         <v>1</v>
       </c>
-      <c r="N71" t="s">
-        <v>15</v>
+      <c r="N71" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="O71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q71">
         <v>0</v>
@@ -4340,52 +4340,52 @@
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A72">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B72" t="s">
         <v>2</v>
       </c>
       <c r="C72" s="1">
-        <v>43463.646249999998</v>
+        <v>43473.322974537034</v>
       </c>
       <c r="D72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F72">
         <v>1</v>
       </c>
       <c r="G72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I72" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J72" s="3" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>44</v>
       </c>
       <c r="L72" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M72">
-        <v>2</v>
-      </c>
-      <c r="N72" s="3" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+      <c r="N72" t="s">
+        <v>19</v>
       </c>
       <c r="O72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q72">
         <v>0</v>
@@ -4399,7 +4399,7 @@
         <v>2</v>
       </c>
       <c r="C73" s="1">
-        <v>43462.496817129628</v>
+        <v>43473.496817129628</v>
       </c>
       <c r="D73">
         <v>0</v>
@@ -4446,105 +4446,105 @@
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A74">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B74" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C74" s="1">
-        <v>43461.313101851854</v>
+        <v>43473.484722222223</v>
       </c>
       <c r="D74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="I74" s="3" t="s">
         <v>44</v>
       </c>
       <c r="J74" s="3" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="K74" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="L74" t="s">
-        <v>11</v>
+      <c r="L74" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="M74">
         <v>1</v>
       </c>
       <c r="N74" s="3" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="O74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q74">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A75">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B75" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C75" s="1">
-        <v>43461.609722222223</v>
+        <v>43473.357638888891</v>
       </c>
       <c r="D75">
         <v>0</v>
       </c>
       <c r="E75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H75" s="3" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="I75" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="J75" t="s">
-        <v>41</v>
+        <v>53</v>
+      </c>
+      <c r="J75" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="K75" s="3" t="s">
         <v>44</v>
       </c>
       <c r="L75" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N75" s="3" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="O75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q75">
         <v>0</v>
@@ -4558,7 +4558,7 @@
         <v>3</v>
       </c>
       <c r="C76" s="1">
-        <v>43461.443055555559</v>
+        <v>43472.823182870372</v>
       </c>
       <c r="D76">
         <v>0</v>
@@ -4573,10 +4573,10 @@
         <v>0</v>
       </c>
       <c r="H76" s="3" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="I76" s="3" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>44</v>
@@ -4584,14 +4584,14 @@
       <c r="K76" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="L76" s="3" t="s">
+      <c r="L76" t="s">
         <v>11</v>
       </c>
       <c r="M76">
         <v>2</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>58</v>
+      <c r="N76" t="s">
+        <v>20</v>
       </c>
       <c r="O76">
         <v>0</v>
@@ -4605,13 +4605,13 @@
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A77">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B77" t="s">
         <v>2</v>
       </c>
       <c r="C77" s="1">
-        <v>43460.496817129628</v>
+        <v>43472.354421296295</v>
       </c>
       <c r="D77">
         <v>0</v>
@@ -4623,16 +4623,16 @@
         <v>1</v>
       </c>
       <c r="G77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H77" s="3" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="I77" s="3" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="J77" s="3" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="K77" s="3" t="s">
         <v>44</v>
@@ -4641,48 +4641,48 @@
         <v>10</v>
       </c>
       <c r="M77">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N77" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="O77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q77">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A78">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B78" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C78" s="1">
-        <v>43460.313101851854</v>
+        <v>43472.620393518519</v>
       </c>
       <c r="D78">
         <v>0</v>
       </c>
       <c r="E78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I78" s="3" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="J78" s="3" t="s">
         <v>44</v>
@@ -4691,13 +4691,13 @@
         <v>44</v>
       </c>
       <c r="L78" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M78">
         <v>1</v>
       </c>
-      <c r="N78" s="3" t="s">
-        <v>18</v>
+      <c r="N78" t="s">
+        <v>21</v>
       </c>
       <c r="O78">
         <v>0</v>
@@ -4711,16 +4711,16 @@
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A79">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B79" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C79" s="1">
-        <v>43459.609722222223</v>
+        <v>43472.862523148149</v>
       </c>
       <c r="D79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -4729,34 +4729,34 @@
         <v>0</v>
       </c>
       <c r="G79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H79" s="3" t="s">
         <v>41</v>
       </c>
       <c r="I79" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="J79" t="s">
         <v>41</v>
       </c>
+      <c r="J79" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="K79" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="L79" s="3" t="s">
-        <v>11</v>
+      <c r="L79" t="s">
+        <v>22</v>
       </c>
       <c r="M79">
         <v>1</v>
       </c>
-      <c r="N79" s="3" t="s">
-        <v>17</v>
+      <c r="N79" t="s">
+        <v>20</v>
       </c>
       <c r="O79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q79">
         <v>0</v>
@@ -4764,55 +4764,55 @@
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A80">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B80" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C80" s="1">
-        <v>43458.920162037037</v>
+        <v>43471.496817129628</v>
       </c>
       <c r="D80">
         <v>0</v>
       </c>
       <c r="E80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H80" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I80" s="3" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="J80" s="3" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="K80" s="3" t="s">
         <v>44</v>
       </c>
       <c r="L80" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M80">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N80" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="O80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q80">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.35">
@@ -4823,7 +4823,7 @@
         <v>2</v>
       </c>
       <c r="C81" s="1">
-        <v>43458.646249999998</v>
+        <v>43471.646249999998</v>
       </c>
       <c r="D81">
         <v>0</v>
@@ -4876,7 +4876,7 @@
         <v>2</v>
       </c>
       <c r="C82" s="1">
-        <v>43458.496817129628</v>
+        <v>43471.496817129628</v>
       </c>
       <c r="D82">
         <v>0</v>
@@ -4923,31 +4923,31 @@
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A83">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B83" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C83" s="1">
-        <v>43457.313101851854</v>
+        <v>43471.496817129628</v>
       </c>
       <c r="D83">
         <v>0</v>
       </c>
       <c r="E83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G83">
         <v>1</v>
       </c>
       <c r="H83" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I83" s="3" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>44</v>
@@ -4956,13 +4956,13 @@
         <v>44</v>
       </c>
       <c r="L83" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M83">
-        <v>1</v>
-      </c>
-      <c r="N83" s="3" t="s">
-        <v>18</v>
+        <v>2</v>
+      </c>
+      <c r="N83" t="s">
+        <v>24</v>
       </c>
       <c r="O83">
         <v>0</v>
@@ -4971,7 +4971,7 @@
         <v>1</v>
       </c>
       <c r="Q83">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.35">
@@ -4982,7 +4982,7 @@
         <v>3</v>
       </c>
       <c r="C84" s="1">
-        <v>43457.609722222223</v>
+        <v>43470.313101851854</v>
       </c>
       <c r="D84">
         <v>0</v>
@@ -4997,31 +4997,31 @@
         <v>1</v>
       </c>
       <c r="H84" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="I84" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="J84" t="s">
-        <v>41</v>
+      <c r="J84" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="K84" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="L84" s="3" t="s">
+      <c r="L84" t="s">
         <v>11</v>
       </c>
       <c r="M84">
         <v>1</v>
       </c>
       <c r="N84" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="O84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q84">
         <v>0</v>
@@ -5029,13 +5029,13 @@
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A85">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B85" t="s">
         <v>3</v>
       </c>
       <c r="C85" s="1">
-        <v>43457.443055555559</v>
+        <v>43469.609722222223</v>
       </c>
       <c r="D85">
         <v>0</v>
@@ -5047,16 +5047,16 @@
         <v>0</v>
       </c>
       <c r="G85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H85" s="3" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="I85" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="J85" s="3" t="s">
-        <v>44</v>
+        <v>44</v>
+      </c>
+      <c r="J85" t="s">
+        <v>41</v>
       </c>
       <c r="K85" s="3" t="s">
         <v>44</v>
@@ -5065,69 +5065,69 @@
         <v>11</v>
       </c>
       <c r="M85">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N85" s="3" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="O85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q85">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A86">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B86" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C86" s="1">
-        <v>43457.484722222223</v>
+        <v>43469.484722222223</v>
       </c>
       <c r="D86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G86">
         <v>0</v>
       </c>
       <c r="H86" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I86" s="3" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="J86" s="3" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="K86" s="3" t="s">
         <v>44</v>
       </c>
       <c r="L86" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="M86">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N86" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="O86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q86">
         <v>1</v>
@@ -5135,16 +5135,16 @@
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A87">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B87" t="s">
         <v>2</v>
       </c>
       <c r="C87" s="1">
-        <v>43456.357638888891</v>
+        <v>43469.443055555559</v>
       </c>
       <c r="D87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E87">
         <v>1</v>
@@ -5156,13 +5156,13 @@
         <v>0</v>
       </c>
       <c r="H87" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I87" s="3" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J87" s="3" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="K87" s="3" t="s">
         <v>44</v>
@@ -5171,72 +5171,72 @@
         <v>9</v>
       </c>
       <c r="M87">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N87" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="O87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q87">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A88">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B88" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C88" s="1">
-        <v>43455.313101851854</v>
+        <v>43469.484722222223</v>
       </c>
       <c r="D88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H88" s="3" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="I88" s="3" t="s">
         <v>44</v>
       </c>
       <c r="J88" s="3" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="K88" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="L88" t="s">
-        <v>11</v>
+      <c r="L88" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="M88">
         <v>1</v>
       </c>
       <c r="N88" s="3" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="O88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q88">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.35">
@@ -5247,10 +5247,10 @@
         <v>2</v>
       </c>
       <c r="C89" s="1">
-        <v>43455.322974537034</v>
+        <v>43469.496817129628</v>
       </c>
       <c r="D89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E89">
         <v>1</v>
@@ -5262,63 +5262,63 @@
         <v>1</v>
       </c>
       <c r="H89" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="I89" s="3" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="J89" s="3" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>44</v>
       </c>
       <c r="L89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M89">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N89" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q89">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A90">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B90" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C90" s="1">
-        <v>43454.823182870372</v>
+        <v>43469.357638888891</v>
       </c>
       <c r="D90">
         <v>0</v>
       </c>
       <c r="E90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G90">
         <v>0</v>
       </c>
       <c r="H90" s="3" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="I90" s="3" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="J90" s="3" t="s">
         <v>44</v>
@@ -5326,14 +5326,14 @@
       <c r="K90" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="L90" t="s">
-        <v>11</v>
+      <c r="L90" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="M90">
         <v>2</v>
       </c>
-      <c r="N90" t="s">
-        <v>20</v>
+      <c r="N90" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="O90">
         <v>0</v>
@@ -5342,51 +5342,51 @@
         <v>1</v>
       </c>
       <c r="Q90">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A91">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B91" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C91" s="1">
-        <v>43454.354421296295</v>
+        <v>43468.920162037037</v>
       </c>
       <c r="D91">
         <v>0</v>
       </c>
       <c r="E91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G91">
         <v>0</v>
       </c>
       <c r="H91" s="3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="I91" s="3" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="J91" s="3" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>44</v>
       </c>
       <c r="L91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M91">
         <v>1</v>
       </c>
       <c r="N91" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O91">
         <v>1</v>
@@ -5406,13 +5406,13 @@
         <v>2</v>
       </c>
       <c r="C92" s="1">
-        <v>43454.620393518519</v>
+        <v>43468.646249999998</v>
       </c>
       <c r="D92">
         <v>0</v>
       </c>
       <c r="E92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F92">
         <v>1</v>
@@ -5421,13 +5421,13 @@
         <v>0</v>
       </c>
       <c r="H92" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I92" s="3" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="J92" s="3" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K92" s="3" t="s">
         <v>44</v>
@@ -5436,10 +5436,10 @@
         <v>10</v>
       </c>
       <c r="M92">
-        <v>1</v>
-      </c>
-      <c r="N92" t="s">
-        <v>21</v>
+        <v>2</v>
+      </c>
+      <c r="N92" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="O92">
         <v>0</v>
@@ -5459,7 +5459,7 @@
         <v>2</v>
       </c>
       <c r="C93" s="1">
-        <v>43453.496817129628</v>
+        <v>43468.496817129628</v>
       </c>
       <c r="D93">
         <v>0</v>
@@ -5506,105 +5506,105 @@
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A94">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B94" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C94" s="1">
-        <v>43453.313101851854</v>
+        <v>43468.484722222223</v>
       </c>
       <c r="D94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H94" s="3" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>44</v>
       </c>
       <c r="J94" s="3" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="L94" t="s">
-        <v>11</v>
+      <c r="L94" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="M94">
         <v>1</v>
       </c>
       <c r="N94" s="3" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="O94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q94">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A95">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B95" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C95" s="1">
-        <v>43452.609722222223</v>
+        <v>43468.357638888891</v>
       </c>
       <c r="D95">
         <v>0</v>
       </c>
       <c r="E95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H95" s="3" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="I95" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="J95" t="s">
-        <v>41</v>
+        <v>53</v>
+      </c>
+      <c r="J95" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="K95" s="3" t="s">
         <v>44</v>
       </c>
       <c r="L95" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M95">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N95" s="3" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="O95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q95">
         <v>0</v>
@@ -5612,55 +5612,55 @@
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A96">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B96" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C96" s="1">
-        <v>43451.920162037037</v>
+        <v>43467.496817129628</v>
       </c>
       <c r="D96">
         <v>0</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H96" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I96" s="3" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="J96" s="3" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="K96" s="3" t="s">
         <v>44</v>
       </c>
       <c r="L96" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M96">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N96" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="O96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q96">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:17" x14ac:dyDescent="0.35">
@@ -5671,13 +5671,13 @@
         <v>2</v>
       </c>
       <c r="C97" s="1">
-        <v>43451.646249999998</v>
+        <v>43467.484722222223</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F97">
         <v>1</v>
@@ -5686,48 +5686,48 @@
         <v>0</v>
       </c>
       <c r="H97" s="3" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="I97" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J97" s="3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="K97" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="L97" t="s">
-        <v>10</v>
+      <c r="L97" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="M97">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N97" s="3" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="O97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q97">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A98">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B98" t="s">
         <v>2</v>
       </c>
       <c r="C98" s="1">
-        <v>43383.370150462964</v>
+        <v>43467.357638888891</v>
       </c>
       <c r="D98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E98">
         <v>1</v>
@@ -5739,10 +5739,10 @@
         <v>0</v>
       </c>
       <c r="H98" s="3" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="I98" s="3" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="J98" s="3" t="s">
         <v>44</v>
@@ -5750,14 +5750,14 @@
       <c r="K98" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="L98" t="s">
+      <c r="L98" s="3" t="s">
         <v>9</v>
       </c>
       <c r="M98">
         <v>2</v>
       </c>
-      <c r="N98" t="s">
-        <v>14</v>
+      <c r="N98" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="O98">
         <v>0</v>
@@ -5766,7 +5766,7 @@
         <v>1</v>
       </c>
       <c r="Q98">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:17" x14ac:dyDescent="0.35">
@@ -5776,8 +5776,8 @@
       <c r="B99" t="s">
         <v>2</v>
       </c>
-      <c r="C99" s="2">
-        <v>43383.455150462964</v>
+      <c r="C99" s="1">
+        <v>43467.496817129628</v>
       </c>
       <c r="D99">
         <v>0</v>
@@ -5824,13 +5824,13 @@
     </row>
     <row r="100" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A100">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B100" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C100" s="1">
-        <v>43382.920162037037</v>
+        <v>43467.646249999998</v>
       </c>
       <c r="D100">
         <v>0</v>
@@ -5839,37 +5839,37 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G100">
         <v>0</v>
       </c>
       <c r="H100" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I100" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J100" s="3" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>44</v>
       </c>
       <c r="L100" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M100">
-        <v>1</v>
-      </c>
-      <c r="N100" t="s">
-        <v>15</v>
+        <v>2</v>
+      </c>
+      <c r="N100" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="O100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q100">
         <v>0</v>
@@ -5877,34 +5877,34 @@
     </row>
     <row r="101" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A101">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B101" t="s">
         <v>2</v>
       </c>
       <c r="C101" s="1">
-        <v>43383.646249999998</v>
+        <v>43467.496817129628</v>
       </c>
       <c r="D101">
         <v>0</v>
       </c>
       <c r="E101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F101">
         <v>1</v>
       </c>
       <c r="G101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H101" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I101" s="3" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="J101" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>44</v>
@@ -5915,8 +5915,8 @@
       <c r="M101">
         <v>2</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>17</v>
+      <c r="N101" t="s">
+        <v>24</v>
       </c>
       <c r="O101">
         <v>0</v>
@@ -5925,7 +5925,7 @@
         <v>1</v>
       </c>
       <c r="Q101">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:17" x14ac:dyDescent="0.35">
@@ -5936,7 +5936,7 @@
         <v>3</v>
       </c>
       <c r="C102" s="1">
-        <v>43381.313101851854</v>
+        <v>43465.313101851854</v>
       </c>
       <c r="D102">
         <v>0</v>
@@ -5983,46 +5983,46 @@
     </row>
     <row r="103" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A103">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B103" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C103" s="1">
-        <v>43381.322974537034</v>
+        <v>43464.609722222223</v>
       </c>
       <c r="D103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G103">
         <v>1</v>
       </c>
       <c r="H103" s="3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I103" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="J103" s="3" t="s">
-        <v>38</v>
+      <c r="J103" t="s">
+        <v>41</v>
       </c>
       <c r="K103" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="L103" t="s">
-        <v>9</v>
+      <c r="L103" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="M103">
         <v>1</v>
       </c>
-      <c r="N103" t="s">
-        <v>19</v>
+      <c r="N103" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="O103">
         <v>1</v>
@@ -6042,7 +6042,7 @@
         <v>3</v>
       </c>
       <c r="C104" s="1">
-        <v>43380.823182870372</v>
+        <v>43464.484722222223</v>
       </c>
       <c r="D104">
         <v>0</v>
@@ -6057,10 +6057,10 @@
         <v>0</v>
       </c>
       <c r="H104" s="3" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="I104" s="3" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="J104" s="3" t="s">
         <v>44</v>
@@ -6068,14 +6068,14 @@
       <c r="K104" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="L104" t="s">
+      <c r="L104" s="3" t="s">
         <v>11</v>
       </c>
       <c r="M104">
         <v>2</v>
       </c>
-      <c r="N104" t="s">
-        <v>20</v>
+      <c r="N104" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="O104">
         <v>0</v>
@@ -6095,10 +6095,10 @@
         <v>2</v>
       </c>
       <c r="C105" s="1">
-        <v>43380.354421296295</v>
+        <v>43464.443055555559</v>
       </c>
       <c r="D105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E105">
         <v>1</v>
@@ -6110,25 +6110,25 @@
         <v>0</v>
       </c>
       <c r="H105" s="3" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="I105" s="3" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="J105" s="3" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="K105" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="L105" t="s">
-        <v>10</v>
+      <c r="L105" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="M105">
         <v>1</v>
       </c>
-      <c r="N105" t="s">
-        <v>17</v>
+      <c r="N105" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="O105">
         <v>1</v>
@@ -6137,18 +6137,18 @@
         <v>0</v>
       </c>
       <c r="Q105">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A106">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B106" t="s">
         <v>2</v>
       </c>
       <c r="C106" s="1">
-        <v>43380.620393518519</v>
+        <v>43464.496817129628</v>
       </c>
       <c r="D106">
         <v>0</v>
@@ -6160,7 +6160,7 @@
         <v>1</v>
       </c>
       <c r="G106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H106" s="3" t="s">
         <v>34</v>
@@ -6178,10 +6178,10 @@
         <v>10</v>
       </c>
       <c r="M106">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N106" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="O106">
         <v>0</v>
@@ -6190,36 +6190,36 @@
         <v>1</v>
       </c>
       <c r="Q106">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A107">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B107" t="s">
         <v>2</v>
       </c>
       <c r="C107" s="1">
-        <v>43380.862523148149</v>
+        <v>43464.496817129628</v>
       </c>
       <c r="D107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H107" s="3" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="I107" s="3" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="J107" s="3" t="s">
         <v>44</v>
@@ -6228,13 +6228,13 @@
         <v>44</v>
       </c>
       <c r="L107" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="M107">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N107" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="O107">
         <v>0</v>
@@ -6243,24 +6243,24 @@
         <v>1</v>
       </c>
       <c r="Q107">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A108">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B108" t="s">
         <v>2</v>
       </c>
       <c r="C108" s="1">
-        <v>43350.411365740743</v>
+        <v>43464.646249999998</v>
       </c>
       <c r="D108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F108">
         <v>1</v>
@@ -6269,31 +6269,31 @@
         <v>0</v>
       </c>
       <c r="H108" s="3" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="I108" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J108" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K108" s="3" t="s">
         <v>44</v>
       </c>
       <c r="L108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M108">
-        <v>1</v>
-      </c>
-      <c r="N108" t="s">
-        <v>23</v>
+        <v>2</v>
+      </c>
+      <c r="N108" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="O108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q108">
         <v>0</v>
@@ -6301,16 +6301,16 @@
     </row>
     <row r="109" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A109">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B109" t="s">
         <v>2</v>
       </c>
       <c r="C109" s="1">
-        <v>43350.411111111112</v>
+        <v>43464.496817129628</v>
       </c>
       <c r="D109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E109">
         <v>1</v>
@@ -6319,37 +6319,37 @@
         <v>1</v>
       </c>
       <c r="G109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H109" s="3" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="I109" s="3" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="J109" s="3" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="K109" s="3" t="s">
         <v>44</v>
       </c>
       <c r="L109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M109">
         <v>1</v>
       </c>
       <c r="N109" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q109">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:17" x14ac:dyDescent="0.35">
@@ -6360,63 +6360,2448 @@
         <v>3</v>
       </c>
       <c r="C110" s="1">
+        <v>43463.920162037037</v>
+      </c>
+      <c r="D110">
+        <v>0</v>
+      </c>
+      <c r="E110">
+        <v>0</v>
+      </c>
+      <c r="F110">
+        <v>0</v>
+      </c>
+      <c r="G110">
+        <v>0</v>
+      </c>
+      <c r="H110" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I110" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J110" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K110" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L110" t="s">
+        <v>11</v>
+      </c>
+      <c r="M110">
+        <v>1</v>
+      </c>
+      <c r="N110" t="s">
+        <v>15</v>
+      </c>
+      <c r="O110">
+        <v>1</v>
+      </c>
+      <c r="P110">
+        <v>0</v>
+      </c>
+      <c r="Q110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A111">
+        <v>1</v>
+      </c>
+      <c r="B111" t="s">
+        <v>2</v>
+      </c>
+      <c r="C111" s="1">
+        <v>43463.646249999998</v>
+      </c>
+      <c r="D111">
+        <v>0</v>
+      </c>
+      <c r="E111">
+        <v>0</v>
+      </c>
+      <c r="F111">
+        <v>1</v>
+      </c>
+      <c r="G111">
+        <v>0</v>
+      </c>
+      <c r="H111" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I111" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J111" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K111" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L111" t="s">
+        <v>10</v>
+      </c>
+      <c r="M111">
+        <v>2</v>
+      </c>
+      <c r="N111" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O111">
+        <v>0</v>
+      </c>
+      <c r="P111">
+        <v>1</v>
+      </c>
+      <c r="Q111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A112">
+        <v>1</v>
+      </c>
+      <c r="B112" t="s">
+        <v>2</v>
+      </c>
+      <c r="C112" s="1">
+        <v>43463.646249999998</v>
+      </c>
+      <c r="D112">
+        <v>0</v>
+      </c>
+      <c r="E112">
+        <v>0</v>
+      </c>
+      <c r="F112">
+        <v>1</v>
+      </c>
+      <c r="G112">
+        <v>0</v>
+      </c>
+      <c r="H112" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I112" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J112" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K112" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L112" t="s">
+        <v>10</v>
+      </c>
+      <c r="M112">
+        <v>2</v>
+      </c>
+      <c r="N112" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O112">
+        <v>0</v>
+      </c>
+      <c r="P112">
+        <v>1</v>
+      </c>
+      <c r="Q112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A113">
+        <v>3</v>
+      </c>
+      <c r="B113" t="s">
+        <v>2</v>
+      </c>
+      <c r="C113" s="1">
+        <v>43463.496817129628</v>
+      </c>
+      <c r="D113">
+        <v>0</v>
+      </c>
+      <c r="E113">
+        <v>1</v>
+      </c>
+      <c r="F113">
+        <v>1</v>
+      </c>
+      <c r="G113">
+        <v>1</v>
+      </c>
+      <c r="H113" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I113" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J113" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K113" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L113" t="s">
+        <v>10</v>
+      </c>
+      <c r="M113">
+        <v>2</v>
+      </c>
+      <c r="N113" t="s">
+        <v>24</v>
+      </c>
+      <c r="O113">
+        <v>0</v>
+      </c>
+      <c r="P113">
+        <v>1</v>
+      </c>
+      <c r="Q113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A114">
+        <v>3</v>
+      </c>
+      <c r="B114" t="s">
+        <v>2</v>
+      </c>
+      <c r="C114" s="1">
+        <v>43463.496817129628</v>
+      </c>
+      <c r="D114">
+        <v>0</v>
+      </c>
+      <c r="E114">
+        <v>1</v>
+      </c>
+      <c r="F114">
+        <v>1</v>
+      </c>
+      <c r="G114">
+        <v>1</v>
+      </c>
+      <c r="H114" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I114" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J114" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K114" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L114" t="s">
+        <v>10</v>
+      </c>
+      <c r="M114">
+        <v>2</v>
+      </c>
+      <c r="N114" t="s">
+        <v>24</v>
+      </c>
+      <c r="O114">
+        <v>0</v>
+      </c>
+      <c r="P114">
+        <v>1</v>
+      </c>
+      <c r="Q114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A115">
+        <v>3</v>
+      </c>
+      <c r="B115" t="s">
+        <v>2</v>
+      </c>
+      <c r="C115" s="1">
+        <v>43462.496817129628</v>
+      </c>
+      <c r="D115">
+        <v>0</v>
+      </c>
+      <c r="E115">
+        <v>1</v>
+      </c>
+      <c r="F115">
+        <v>1</v>
+      </c>
+      <c r="G115">
+        <v>1</v>
+      </c>
+      <c r="H115" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I115" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J115" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K115" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L115" t="s">
+        <v>10</v>
+      </c>
+      <c r="M115">
+        <v>2</v>
+      </c>
+      <c r="N115" t="s">
+        <v>24</v>
+      </c>
+      <c r="O115">
+        <v>0</v>
+      </c>
+      <c r="P115">
+        <v>1</v>
+      </c>
+      <c r="Q115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A116">
+        <v>3</v>
+      </c>
+      <c r="B116" t="s">
+        <v>2</v>
+      </c>
+      <c r="C116" s="1">
+        <v>43462.923900462964</v>
+      </c>
+      <c r="D116">
+        <v>0</v>
+      </c>
+      <c r="E116">
+        <v>1</v>
+      </c>
+      <c r="F116">
+        <v>1</v>
+      </c>
+      <c r="G116">
+        <v>1</v>
+      </c>
+      <c r="H116" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I116" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J116" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K116" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L116" t="s">
+        <v>10</v>
+      </c>
+      <c r="M116">
+        <v>2</v>
+      </c>
+      <c r="N116" t="s">
+        <v>24</v>
+      </c>
+      <c r="O116">
+        <v>0</v>
+      </c>
+      <c r="P116">
+        <v>1</v>
+      </c>
+      <c r="Q116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A117">
+        <v>1</v>
+      </c>
+      <c r="B117" t="s">
+        <v>2</v>
+      </c>
+      <c r="C117" s="1">
+        <v>43462.484722222223</v>
+      </c>
+      <c r="D117">
+        <v>1</v>
+      </c>
+      <c r="E117">
+        <v>1</v>
+      </c>
+      <c r="F117">
+        <v>1</v>
+      </c>
+      <c r="G117">
+        <v>0</v>
+      </c>
+      <c r="H117" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I117" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J117" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K117" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L117" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M117">
+        <v>1</v>
+      </c>
+      <c r="N117" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="O117">
+        <v>1</v>
+      </c>
+      <c r="P117">
+        <v>0</v>
+      </c>
+      <c r="Q117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A118">
+        <v>3</v>
+      </c>
+      <c r="B118" t="s">
+        <v>2</v>
+      </c>
+      <c r="C118" s="1">
+        <v>43462.357638888891</v>
+      </c>
+      <c r="D118">
+        <v>0</v>
+      </c>
+      <c r="E118">
+        <v>1</v>
+      </c>
+      <c r="F118">
+        <v>1</v>
+      </c>
+      <c r="G118">
+        <v>0</v>
+      </c>
+      <c r="H118" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I118" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J118" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K118" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L118" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M118">
+        <v>2</v>
+      </c>
+      <c r="N118" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="O118">
+        <v>0</v>
+      </c>
+      <c r="P118">
+        <v>1</v>
+      </c>
+      <c r="Q118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A119">
+        <v>2</v>
+      </c>
+      <c r="B119" t="s">
+        <v>3</v>
+      </c>
+      <c r="C119" s="1">
+        <v>43461.313101851854</v>
+      </c>
+      <c r="D119">
+        <v>0</v>
+      </c>
+      <c r="E119">
+        <v>0</v>
+      </c>
+      <c r="F119">
+        <v>0</v>
+      </c>
+      <c r="G119">
+        <v>1</v>
+      </c>
+      <c r="H119" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I119" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J119" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K119" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L119" t="s">
+        <v>11</v>
+      </c>
+      <c r="M119">
+        <v>1</v>
+      </c>
+      <c r="N119" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="O119">
+        <v>0</v>
+      </c>
+      <c r="P119">
+        <v>1</v>
+      </c>
+      <c r="Q119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A120">
+        <v>2</v>
+      </c>
+      <c r="B120" t="s">
+        <v>3</v>
+      </c>
+      <c r="C120" s="1">
+        <v>43461.609722222223</v>
+      </c>
+      <c r="D120">
+        <v>0</v>
+      </c>
+      <c r="E120">
+        <v>0</v>
+      </c>
+      <c r="F120">
+        <v>0</v>
+      </c>
+      <c r="G120">
+        <v>1</v>
+      </c>
+      <c r="H120" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I120" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J120" t="s">
+        <v>41</v>
+      </c>
+      <c r="K120" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L120" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M120">
+        <v>1</v>
+      </c>
+      <c r="N120" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O120">
+        <v>1</v>
+      </c>
+      <c r="P120">
+        <v>0</v>
+      </c>
+      <c r="Q120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A121">
+        <v>5</v>
+      </c>
+      <c r="B121" t="s">
+        <v>3</v>
+      </c>
+      <c r="C121" s="1">
+        <v>43461.443055555559</v>
+      </c>
+      <c r="D121">
+        <v>0</v>
+      </c>
+      <c r="E121">
+        <v>0</v>
+      </c>
+      <c r="F121">
+        <v>0</v>
+      </c>
+      <c r="G121">
+        <v>0</v>
+      </c>
+      <c r="H121" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I121" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J121" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K121" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L121" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M121">
+        <v>2</v>
+      </c>
+      <c r="N121" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="O121">
+        <v>0</v>
+      </c>
+      <c r="P121">
+        <v>1</v>
+      </c>
+      <c r="Q121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A122">
+        <v>3</v>
+      </c>
+      <c r="B122" t="s">
+        <v>2</v>
+      </c>
+      <c r="C122" s="1">
+        <v>43460.496817129628</v>
+      </c>
+      <c r="D122">
+        <v>0</v>
+      </c>
+      <c r="E122">
+        <v>1</v>
+      </c>
+      <c r="F122">
+        <v>1</v>
+      </c>
+      <c r="G122">
+        <v>1</v>
+      </c>
+      <c r="H122" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I122" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J122" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K122" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L122" t="s">
+        <v>10</v>
+      </c>
+      <c r="M122">
+        <v>2</v>
+      </c>
+      <c r="N122" t="s">
+        <v>24</v>
+      </c>
+      <c r="O122">
+        <v>0</v>
+      </c>
+      <c r="P122">
+        <v>1</v>
+      </c>
+      <c r="Q122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A123">
+        <v>2</v>
+      </c>
+      <c r="B123" t="s">
+        <v>3</v>
+      </c>
+      <c r="C123" s="1">
+        <v>43460.313101851854</v>
+      </c>
+      <c r="D123">
+        <v>0</v>
+      </c>
+      <c r="E123">
+        <v>0</v>
+      </c>
+      <c r="F123">
+        <v>0</v>
+      </c>
+      <c r="G123">
+        <v>1</v>
+      </c>
+      <c r="H123" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I123" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J123" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K123" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L123" t="s">
+        <v>11</v>
+      </c>
+      <c r="M123">
+        <v>1</v>
+      </c>
+      <c r="N123" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="O123">
+        <v>0</v>
+      </c>
+      <c r="P123">
+        <v>1</v>
+      </c>
+      <c r="Q123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A124">
+        <v>2</v>
+      </c>
+      <c r="B124" t="s">
+        <v>3</v>
+      </c>
+      <c r="C124" s="1">
+        <v>43459.609722222223</v>
+      </c>
+      <c r="D124">
+        <v>0</v>
+      </c>
+      <c r="E124">
+        <v>0</v>
+      </c>
+      <c r="F124">
+        <v>0</v>
+      </c>
+      <c r="G124">
+        <v>1</v>
+      </c>
+      <c r="H124" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I124" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J124" t="s">
+        <v>41</v>
+      </c>
+      <c r="K124" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L124" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M124">
+        <v>1</v>
+      </c>
+      <c r="N124" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O124">
+        <v>1</v>
+      </c>
+      <c r="P124">
+        <v>0</v>
+      </c>
+      <c r="Q124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A125">
+        <v>5</v>
+      </c>
+      <c r="B125" t="s">
+        <v>3</v>
+      </c>
+      <c r="C125" s="1">
+        <v>43458.920162037037</v>
+      </c>
+      <c r="D125">
+        <v>0</v>
+      </c>
+      <c r="E125">
+        <v>0</v>
+      </c>
+      <c r="F125">
+        <v>0</v>
+      </c>
+      <c r="G125">
+        <v>0</v>
+      </c>
+      <c r="H125" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I125" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J125" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K125" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L125" t="s">
+        <v>11</v>
+      </c>
+      <c r="M125">
+        <v>1</v>
+      </c>
+      <c r="N125" t="s">
+        <v>15</v>
+      </c>
+      <c r="O125">
+        <v>1</v>
+      </c>
+      <c r="P125">
+        <v>0</v>
+      </c>
+      <c r="Q125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A126">
+        <v>1</v>
+      </c>
+      <c r="B126" t="s">
+        <v>2</v>
+      </c>
+      <c r="C126" s="1">
+        <v>43458.646249999998</v>
+      </c>
+      <c r="D126">
+        <v>0</v>
+      </c>
+      <c r="E126">
+        <v>0</v>
+      </c>
+      <c r="F126">
+        <v>1</v>
+      </c>
+      <c r="G126">
+        <v>0</v>
+      </c>
+      <c r="H126" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I126" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J126" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K126" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L126" t="s">
+        <v>10</v>
+      </c>
+      <c r="M126">
+        <v>2</v>
+      </c>
+      <c r="N126" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O126">
+        <v>0</v>
+      </c>
+      <c r="P126">
+        <v>1</v>
+      </c>
+      <c r="Q126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A127">
+        <v>3</v>
+      </c>
+      <c r="B127" t="s">
+        <v>2</v>
+      </c>
+      <c r="C127" s="1">
+        <v>43458.496817129628</v>
+      </c>
+      <c r="D127">
+        <v>0</v>
+      </c>
+      <c r="E127">
+        <v>1</v>
+      </c>
+      <c r="F127">
+        <v>1</v>
+      </c>
+      <c r="G127">
+        <v>1</v>
+      </c>
+      <c r="H127" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I127" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J127" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K127" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L127" t="s">
+        <v>10</v>
+      </c>
+      <c r="M127">
+        <v>2</v>
+      </c>
+      <c r="N127" t="s">
+        <v>24</v>
+      </c>
+      <c r="O127">
+        <v>0</v>
+      </c>
+      <c r="P127">
+        <v>1</v>
+      </c>
+      <c r="Q127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A128">
+        <v>2</v>
+      </c>
+      <c r="B128" t="s">
+        <v>3</v>
+      </c>
+      <c r="C128" s="1">
+        <v>43457.313101851854</v>
+      </c>
+      <c r="D128">
+        <v>0</v>
+      </c>
+      <c r="E128">
+        <v>0</v>
+      </c>
+      <c r="F128">
+        <v>0</v>
+      </c>
+      <c r="G128">
+        <v>1</v>
+      </c>
+      <c r="H128" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I128" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J128" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K128" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L128" t="s">
+        <v>11</v>
+      </c>
+      <c r="M128">
+        <v>1</v>
+      </c>
+      <c r="N128" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="O128">
+        <v>0</v>
+      </c>
+      <c r="P128">
+        <v>1</v>
+      </c>
+      <c r="Q128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A129">
+        <v>2</v>
+      </c>
+      <c r="B129" t="s">
+        <v>3</v>
+      </c>
+      <c r="C129" s="1">
+        <v>43457.609722222223</v>
+      </c>
+      <c r="D129">
+        <v>0</v>
+      </c>
+      <c r="E129">
+        <v>0</v>
+      </c>
+      <c r="F129">
+        <v>0</v>
+      </c>
+      <c r="G129">
+        <v>1</v>
+      </c>
+      <c r="H129" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I129" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J129" t="s">
+        <v>41</v>
+      </c>
+      <c r="K129" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L129" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M129">
+        <v>1</v>
+      </c>
+      <c r="N129" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O129">
+        <v>1</v>
+      </c>
+      <c r="P129">
+        <v>0</v>
+      </c>
+      <c r="Q129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A130">
+        <v>5</v>
+      </c>
+      <c r="B130" t="s">
+        <v>3</v>
+      </c>
+      <c r="C130" s="1">
+        <v>43457.443055555559</v>
+      </c>
+      <c r="D130">
+        <v>0</v>
+      </c>
+      <c r="E130">
+        <v>0</v>
+      </c>
+      <c r="F130">
+        <v>0</v>
+      </c>
+      <c r="G130">
+        <v>0</v>
+      </c>
+      <c r="H130" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I130" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J130" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K130" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L130" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M130">
+        <v>2</v>
+      </c>
+      <c r="N130" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="O130">
+        <v>0</v>
+      </c>
+      <c r="P130">
+        <v>1</v>
+      </c>
+      <c r="Q130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A131">
+        <v>1</v>
+      </c>
+      <c r="B131" t="s">
+        <v>2</v>
+      </c>
+      <c r="C131" s="1">
+        <v>43457.484722222223</v>
+      </c>
+      <c r="D131">
+        <v>1</v>
+      </c>
+      <c r="E131">
+        <v>1</v>
+      </c>
+      <c r="F131">
+        <v>1</v>
+      </c>
+      <c r="G131">
+        <v>0</v>
+      </c>
+      <c r="H131" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I131" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J131" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K131" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L131" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M131">
+        <v>1</v>
+      </c>
+      <c r="N131" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="O131">
+        <v>1</v>
+      </c>
+      <c r="P131">
+        <v>0</v>
+      </c>
+      <c r="Q131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A132">
+        <v>3</v>
+      </c>
+      <c r="B132" t="s">
+        <v>2</v>
+      </c>
+      <c r="C132" s="1">
+        <v>43456.357638888891</v>
+      </c>
+      <c r="D132">
+        <v>0</v>
+      </c>
+      <c r="E132">
+        <v>1</v>
+      </c>
+      <c r="F132">
+        <v>1</v>
+      </c>
+      <c r="G132">
+        <v>0</v>
+      </c>
+      <c r="H132" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I132" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J132" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K132" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L132" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M132">
+        <v>2</v>
+      </c>
+      <c r="N132" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="O132">
+        <v>0</v>
+      </c>
+      <c r="P132">
+        <v>1</v>
+      </c>
+      <c r="Q132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A133">
+        <v>2</v>
+      </c>
+      <c r="B133" t="s">
+        <v>3</v>
+      </c>
+      <c r="C133" s="1">
+        <v>43455.313101851854</v>
+      </c>
+      <c r="D133">
+        <v>0</v>
+      </c>
+      <c r="E133">
+        <v>0</v>
+      </c>
+      <c r="F133">
+        <v>0</v>
+      </c>
+      <c r="G133">
+        <v>1</v>
+      </c>
+      <c r="H133" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I133" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J133" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K133" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L133" t="s">
+        <v>11</v>
+      </c>
+      <c r="M133">
+        <v>1</v>
+      </c>
+      <c r="N133" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="O133">
+        <v>0</v>
+      </c>
+      <c r="P133">
+        <v>1</v>
+      </c>
+      <c r="Q133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A134">
+        <v>3</v>
+      </c>
+      <c r="B134" t="s">
+        <v>2</v>
+      </c>
+      <c r="C134" s="1">
+        <v>43455.322974537034</v>
+      </c>
+      <c r="D134">
+        <v>1</v>
+      </c>
+      <c r="E134">
+        <v>1</v>
+      </c>
+      <c r="F134">
+        <v>1</v>
+      </c>
+      <c r="G134">
+        <v>1</v>
+      </c>
+      <c r="H134" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I134" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J134" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K134" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L134" t="s">
+        <v>9</v>
+      </c>
+      <c r="M134">
+        <v>1</v>
+      </c>
+      <c r="N134" t="s">
+        <v>19</v>
+      </c>
+      <c r="O134">
+        <v>1</v>
+      </c>
+      <c r="P134">
+        <v>0</v>
+      </c>
+      <c r="Q134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A135">
+        <v>5</v>
+      </c>
+      <c r="B135" t="s">
+        <v>3</v>
+      </c>
+      <c r="C135" s="1">
+        <v>43454.823182870372</v>
+      </c>
+      <c r="D135">
+        <v>0</v>
+      </c>
+      <c r="E135">
+        <v>0</v>
+      </c>
+      <c r="F135">
+        <v>0</v>
+      </c>
+      <c r="G135">
+        <v>0</v>
+      </c>
+      <c r="H135" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I135" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J135" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K135" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L135" t="s">
+        <v>11</v>
+      </c>
+      <c r="M135">
+        <v>2</v>
+      </c>
+      <c r="N135" t="s">
+        <v>20</v>
+      </c>
+      <c r="O135">
+        <v>0</v>
+      </c>
+      <c r="P135">
+        <v>1</v>
+      </c>
+      <c r="Q135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A136">
+        <v>1</v>
+      </c>
+      <c r="B136" t="s">
+        <v>2</v>
+      </c>
+      <c r="C136" s="1">
+        <v>43454.354421296295</v>
+      </c>
+      <c r="D136">
+        <v>0</v>
+      </c>
+      <c r="E136">
+        <v>1</v>
+      </c>
+      <c r="F136">
+        <v>1</v>
+      </c>
+      <c r="G136">
+        <v>0</v>
+      </c>
+      <c r="H136" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I136" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J136" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K136" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L136" t="s">
+        <v>10</v>
+      </c>
+      <c r="M136">
+        <v>1</v>
+      </c>
+      <c r="N136" t="s">
+        <v>17</v>
+      </c>
+      <c r="O136">
+        <v>1</v>
+      </c>
+      <c r="P136">
+        <v>0</v>
+      </c>
+      <c r="Q136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A137">
+        <v>1</v>
+      </c>
+      <c r="B137" t="s">
+        <v>2</v>
+      </c>
+      <c r="C137" s="1">
+        <v>43454.620393518519</v>
+      </c>
+      <c r="D137">
+        <v>0</v>
+      </c>
+      <c r="E137">
+        <v>1</v>
+      </c>
+      <c r="F137">
+        <v>1</v>
+      </c>
+      <c r="G137">
+        <v>0</v>
+      </c>
+      <c r="H137" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I137" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J137" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K137" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L137" t="s">
+        <v>10</v>
+      </c>
+      <c r="M137">
+        <v>1</v>
+      </c>
+      <c r="N137" t="s">
+        <v>21</v>
+      </c>
+      <c r="O137">
+        <v>0</v>
+      </c>
+      <c r="P137">
+        <v>1</v>
+      </c>
+      <c r="Q137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A138">
+        <v>3</v>
+      </c>
+      <c r="B138" t="s">
+        <v>2</v>
+      </c>
+      <c r="C138" s="1">
+        <v>43453.496817129628</v>
+      </c>
+      <c r="D138">
+        <v>0</v>
+      </c>
+      <c r="E138">
+        <v>1</v>
+      </c>
+      <c r="F138">
+        <v>1</v>
+      </c>
+      <c r="G138">
+        <v>1</v>
+      </c>
+      <c r="H138" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I138" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J138" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K138" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L138" t="s">
+        <v>10</v>
+      </c>
+      <c r="M138">
+        <v>2</v>
+      </c>
+      <c r="N138" t="s">
+        <v>24</v>
+      </c>
+      <c r="O138">
+        <v>0</v>
+      </c>
+      <c r="P138">
+        <v>1</v>
+      </c>
+      <c r="Q138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A139">
+        <v>2</v>
+      </c>
+      <c r="B139" t="s">
+        <v>3</v>
+      </c>
+      <c r="C139" s="1">
+        <v>43453.313101851854</v>
+      </c>
+      <c r="D139">
+        <v>0</v>
+      </c>
+      <c r="E139">
+        <v>0</v>
+      </c>
+      <c r="F139">
+        <v>0</v>
+      </c>
+      <c r="G139">
+        <v>1</v>
+      </c>
+      <c r="H139" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I139" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J139" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K139" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L139" t="s">
+        <v>11</v>
+      </c>
+      <c r="M139">
+        <v>1</v>
+      </c>
+      <c r="N139" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="O139">
+        <v>0</v>
+      </c>
+      <c r="P139">
+        <v>1</v>
+      </c>
+      <c r="Q139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A140">
+        <v>2</v>
+      </c>
+      <c r="B140" t="s">
+        <v>3</v>
+      </c>
+      <c r="C140" s="1">
+        <v>43452.609722222223</v>
+      </c>
+      <c r="D140">
+        <v>0</v>
+      </c>
+      <c r="E140">
+        <v>0</v>
+      </c>
+      <c r="F140">
+        <v>0</v>
+      </c>
+      <c r="G140">
+        <v>1</v>
+      </c>
+      <c r="H140" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I140" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J140" t="s">
+        <v>41</v>
+      </c>
+      <c r="K140" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L140" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M140">
+        <v>1</v>
+      </c>
+      <c r="N140" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O140">
+        <v>1</v>
+      </c>
+      <c r="P140">
+        <v>0</v>
+      </c>
+      <c r="Q140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A141">
+        <v>5</v>
+      </c>
+      <c r="B141" t="s">
+        <v>3</v>
+      </c>
+      <c r="C141" s="1">
+        <v>43451.920162037037</v>
+      </c>
+      <c r="D141">
+        <v>0</v>
+      </c>
+      <c r="E141">
+        <v>0</v>
+      </c>
+      <c r="F141">
+        <v>0</v>
+      </c>
+      <c r="G141">
+        <v>0</v>
+      </c>
+      <c r="H141" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I141" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J141" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K141" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L141" t="s">
+        <v>11</v>
+      </c>
+      <c r="M141">
+        <v>1</v>
+      </c>
+      <c r="N141" t="s">
+        <v>15</v>
+      </c>
+      <c r="O141">
+        <v>1</v>
+      </c>
+      <c r="P141">
+        <v>0</v>
+      </c>
+      <c r="Q141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A142">
+        <v>1</v>
+      </c>
+      <c r="B142" t="s">
+        <v>2</v>
+      </c>
+      <c r="C142" s="1">
+        <v>43451.646249999998</v>
+      </c>
+      <c r="D142">
+        <v>0</v>
+      </c>
+      <c r="E142">
+        <v>0</v>
+      </c>
+      <c r="F142">
+        <v>1</v>
+      </c>
+      <c r="G142">
+        <v>0</v>
+      </c>
+      <c r="H142" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I142" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J142" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K142" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L142" t="s">
+        <v>10</v>
+      </c>
+      <c r="M142">
+        <v>2</v>
+      </c>
+      <c r="N142" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O142">
+        <v>0</v>
+      </c>
+      <c r="P142">
+        <v>1</v>
+      </c>
+      <c r="Q142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A143">
+        <v>1</v>
+      </c>
+      <c r="B143" t="s">
+        <v>2</v>
+      </c>
+      <c r="C143" s="1">
+        <v>43383.370150462964</v>
+      </c>
+      <c r="D143">
+        <v>1</v>
+      </c>
+      <c r="E143">
+        <v>1</v>
+      </c>
+      <c r="F143">
+        <v>1</v>
+      </c>
+      <c r="G143">
+        <v>0</v>
+      </c>
+      <c r="H143" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I143" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J143" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K143" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L143" t="s">
+        <v>9</v>
+      </c>
+      <c r="M143">
+        <v>2</v>
+      </c>
+      <c r="N143" t="s">
+        <v>14</v>
+      </c>
+      <c r="O143">
+        <v>0</v>
+      </c>
+      <c r="P143">
+        <v>1</v>
+      </c>
+      <c r="Q143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A144">
+        <v>3</v>
+      </c>
+      <c r="B144" t="s">
+        <v>2</v>
+      </c>
+      <c r="C144" s="2">
+        <v>43383.455150462964</v>
+      </c>
+      <c r="D144">
+        <v>0</v>
+      </c>
+      <c r="E144">
+        <v>1</v>
+      </c>
+      <c r="F144">
+        <v>1</v>
+      </c>
+      <c r="G144">
+        <v>1</v>
+      </c>
+      <c r="H144" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I144" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J144" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K144" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L144" t="s">
+        <v>10</v>
+      </c>
+      <c r="M144">
+        <v>2</v>
+      </c>
+      <c r="N144" t="s">
+        <v>24</v>
+      </c>
+      <c r="O144">
+        <v>0</v>
+      </c>
+      <c r="P144">
+        <v>1</v>
+      </c>
+      <c r="Q144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A145">
+        <v>5</v>
+      </c>
+      <c r="B145" t="s">
+        <v>3</v>
+      </c>
+      <c r="C145" s="1">
+        <v>43382.920162037037</v>
+      </c>
+      <c r="D145">
+        <v>0</v>
+      </c>
+      <c r="E145">
+        <v>0</v>
+      </c>
+      <c r="F145">
+        <v>0</v>
+      </c>
+      <c r="G145">
+        <v>0</v>
+      </c>
+      <c r="H145" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I145" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J145" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K145" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L145" t="s">
+        <v>11</v>
+      </c>
+      <c r="M145">
+        <v>1</v>
+      </c>
+      <c r="N145" t="s">
+        <v>15</v>
+      </c>
+      <c r="O145">
+        <v>1</v>
+      </c>
+      <c r="P145">
+        <v>0</v>
+      </c>
+      <c r="Q145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A146">
+        <v>1</v>
+      </c>
+      <c r="B146" t="s">
+        <v>2</v>
+      </c>
+      <c r="C146" s="1">
+        <v>43383.646249999998</v>
+      </c>
+      <c r="D146">
+        <v>0</v>
+      </c>
+      <c r="E146">
+        <v>0</v>
+      </c>
+      <c r="F146">
+        <v>1</v>
+      </c>
+      <c r="G146">
+        <v>0</v>
+      </c>
+      <c r="H146" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I146" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J146" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K146" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L146" t="s">
+        <v>10</v>
+      </c>
+      <c r="M146">
+        <v>2</v>
+      </c>
+      <c r="N146" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O146">
+        <v>0</v>
+      </c>
+      <c r="P146">
+        <v>1</v>
+      </c>
+      <c r="Q146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A147">
+        <v>2</v>
+      </c>
+      <c r="B147" t="s">
+        <v>3</v>
+      </c>
+      <c r="C147" s="1">
+        <v>43381.313101851854</v>
+      </c>
+      <c r="D147">
+        <v>0</v>
+      </c>
+      <c r="E147">
+        <v>0</v>
+      </c>
+      <c r="F147">
+        <v>0</v>
+      </c>
+      <c r="G147">
+        <v>1</v>
+      </c>
+      <c r="H147" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I147" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J147" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K147" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L147" t="s">
+        <v>11</v>
+      </c>
+      <c r="M147">
+        <v>1</v>
+      </c>
+      <c r="N147" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="O147">
+        <v>0</v>
+      </c>
+      <c r="P147">
+        <v>1</v>
+      </c>
+      <c r="Q147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A148">
+        <v>3</v>
+      </c>
+      <c r="B148" t="s">
+        <v>2</v>
+      </c>
+      <c r="C148" s="1">
+        <v>43381.322974537034</v>
+      </c>
+      <c r="D148">
+        <v>1</v>
+      </c>
+      <c r="E148">
+        <v>1</v>
+      </c>
+      <c r="F148">
+        <v>1</v>
+      </c>
+      <c r="G148">
+        <v>1</v>
+      </c>
+      <c r="H148" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I148" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J148" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K148" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L148" t="s">
+        <v>9</v>
+      </c>
+      <c r="M148">
+        <v>1</v>
+      </c>
+      <c r="N148" t="s">
+        <v>19</v>
+      </c>
+      <c r="O148">
+        <v>1</v>
+      </c>
+      <c r="P148">
+        <v>0</v>
+      </c>
+      <c r="Q148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A149">
+        <v>5</v>
+      </c>
+      <c r="B149" t="s">
+        <v>3</v>
+      </c>
+      <c r="C149" s="1">
+        <v>43380.823182870372</v>
+      </c>
+      <c r="D149">
+        <v>0</v>
+      </c>
+      <c r="E149">
+        <v>0</v>
+      </c>
+      <c r="F149">
+        <v>0</v>
+      </c>
+      <c r="G149">
+        <v>0</v>
+      </c>
+      <c r="H149" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I149" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J149" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K149" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L149" t="s">
+        <v>11</v>
+      </c>
+      <c r="M149">
+        <v>2</v>
+      </c>
+      <c r="N149" t="s">
+        <v>20</v>
+      </c>
+      <c r="O149">
+        <v>0</v>
+      </c>
+      <c r="P149">
+        <v>1</v>
+      </c>
+      <c r="Q149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A150">
+        <v>1</v>
+      </c>
+      <c r="B150" t="s">
+        <v>2</v>
+      </c>
+      <c r="C150" s="1">
+        <v>43380.354421296295</v>
+      </c>
+      <c r="D150">
+        <v>0</v>
+      </c>
+      <c r="E150">
+        <v>1</v>
+      </c>
+      <c r="F150">
+        <v>1</v>
+      </c>
+      <c r="G150">
+        <v>0</v>
+      </c>
+      <c r="H150" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I150" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J150" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K150" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L150" t="s">
+        <v>10</v>
+      </c>
+      <c r="M150">
+        <v>1</v>
+      </c>
+      <c r="N150" t="s">
+        <v>17</v>
+      </c>
+      <c r="O150">
+        <v>1</v>
+      </c>
+      <c r="P150">
+        <v>0</v>
+      </c>
+      <c r="Q150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A151">
+        <v>1</v>
+      </c>
+      <c r="B151" t="s">
+        <v>2</v>
+      </c>
+      <c r="C151" s="1">
+        <v>43380.620393518519</v>
+      </c>
+      <c r="D151">
+        <v>0</v>
+      </c>
+      <c r="E151">
+        <v>1</v>
+      </c>
+      <c r="F151">
+        <v>1</v>
+      </c>
+      <c r="G151">
+        <v>0</v>
+      </c>
+      <c r="H151" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I151" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J151" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K151" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L151" t="s">
+        <v>10</v>
+      </c>
+      <c r="M151">
+        <v>1</v>
+      </c>
+      <c r="N151" t="s">
+        <v>21</v>
+      </c>
+      <c r="O151">
+        <v>0</v>
+      </c>
+      <c r="P151">
+        <v>1</v>
+      </c>
+      <c r="Q151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A152">
+        <v>1</v>
+      </c>
+      <c r="B152" t="s">
+        <v>2</v>
+      </c>
+      <c r="C152" s="1">
+        <v>43380.862523148149</v>
+      </c>
+      <c r="D152">
+        <v>1</v>
+      </c>
+      <c r="E152">
+        <v>0</v>
+      </c>
+      <c r="F152">
+        <v>0</v>
+      </c>
+      <c r="G152">
+        <v>0</v>
+      </c>
+      <c r="H152" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I152" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J152" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K152" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L152" t="s">
+        <v>22</v>
+      </c>
+      <c r="M152">
+        <v>1</v>
+      </c>
+      <c r="N152" t="s">
+        <v>20</v>
+      </c>
+      <c r="O152">
+        <v>0</v>
+      </c>
+      <c r="P152">
+        <v>1</v>
+      </c>
+      <c r="Q152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A153">
+        <v>3</v>
+      </c>
+      <c r="B153" t="s">
+        <v>2</v>
+      </c>
+      <c r="C153" s="1">
+        <v>43350.411365740743</v>
+      </c>
+      <c r="D153">
+        <v>1</v>
+      </c>
+      <c r="E153">
+        <v>1</v>
+      </c>
+      <c r="F153">
+        <v>1</v>
+      </c>
+      <c r="G153">
+        <v>0</v>
+      </c>
+      <c r="H153" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I153" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J153" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K153" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L153" t="s">
+        <v>9</v>
+      </c>
+      <c r="M153">
+        <v>1</v>
+      </c>
+      <c r="N153" t="s">
+        <v>23</v>
+      </c>
+      <c r="O153">
+        <v>1</v>
+      </c>
+      <c r="P153">
+        <v>0</v>
+      </c>
+      <c r="Q153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A154">
+        <v>1</v>
+      </c>
+      <c r="B154" t="s">
+        <v>2</v>
+      </c>
+      <c r="C154" s="1">
+        <v>43350.411111111112</v>
+      </c>
+      <c r="D154">
+        <v>1</v>
+      </c>
+      <c r="E154">
+        <v>1</v>
+      </c>
+      <c r="F154">
+        <v>1</v>
+      </c>
+      <c r="G154">
+        <v>0</v>
+      </c>
+      <c r="H154" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I154" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J154" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K154" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L154" t="s">
+        <v>9</v>
+      </c>
+      <c r="M154">
+        <v>1</v>
+      </c>
+      <c r="N154" t="s">
+        <v>23</v>
+      </c>
+      <c r="O154">
+        <v>1</v>
+      </c>
+      <c r="P154">
+        <v>0</v>
+      </c>
+      <c r="Q154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A155">
+        <v>5</v>
+      </c>
+      <c r="B155" t="s">
+        <v>3</v>
+      </c>
+      <c r="C155" s="1">
         <v>43382.447916666664</v>
       </c>
-      <c r="D110">
-        <v>0</v>
-      </c>
-      <c r="E110">
-        <v>0</v>
-      </c>
-      <c r="F110">
-        <v>0</v>
-      </c>
-      <c r="G110">
-        <v>0</v>
-      </c>
-      <c r="H110" s="3" t="s">
+      <c r="D155">
+        <v>0</v>
+      </c>
+      <c r="E155">
+        <v>0</v>
+      </c>
+      <c r="F155">
+        <v>0</v>
+      </c>
+      <c r="G155">
+        <v>0</v>
+      </c>
+      <c r="H155" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="I110" s="3" t="s">
+      <c r="I155" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="J110" s="3" t="s">
+      <c r="J155" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="K110" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="L110" t="s">
+      <c r="K155" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L155" t="s">
         <v>10</v>
       </c>
-      <c r="M110">
-        <v>1</v>
-      </c>
-      <c r="N110" t="s">
+      <c r="M155">
+        <v>1</v>
+      </c>
+      <c r="N155" t="s">
         <v>26</v>
       </c>
-      <c r="O110">
-        <v>0</v>
-      </c>
-      <c r="P110">
-        <v>1</v>
-      </c>
-      <c r="Q110">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="Q112">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" spans="3:14" x14ac:dyDescent="0.35">
-      <c r="C119" s="1"/>
-      <c r="H119" s="3"/>
-      <c r="I119" s="3"/>
-      <c r="J119" s="3"/>
-      <c r="K119" s="3"/>
-      <c r="N119" s="3"/>
+      <c r="O155">
+        <v>0</v>
+      </c>
+      <c r="P155">
+        <v>1</v>
+      </c>
+      <c r="Q155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="Q157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="C164" s="1"/>
+      <c r="H164" s="3"/>
+      <c r="I164" s="3"/>
+      <c r="J164" s="3"/>
+      <c r="K164" s="3"/>
+      <c r="N164" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
